--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_0_39.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_0_39.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4315202.399631509</v>
+        <v>4313322.219861181</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>615593.818257948</v>
+        <v>190846.7124658449</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673433</v>
+        <v>603248.4937673435</v>
       </c>
     </row>
     <row r="9">
@@ -656,19 +656,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>241.7627700121621</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
         <v>413.784170020795</v>
@@ -716,10 +716,10 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>313.2070399508087</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -756,7 +756,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I3" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250796</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>156.5912426325231</v>
       </c>
       <c r="T3" t="n">
-        <v>196.8897623984484</v>
+        <v>196.8897623984489</v>
       </c>
       <c r="U3" t="n">
         <v>225.8879277888686</v>
@@ -814,7 +814,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -823,19 +823,19 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>63.57678144609353</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -859,7 +859,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -868,10 +868,10 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>14.86965341517843</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -899,22 +899,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>73.55526855148156</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,10 +941,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
         <v>216.4483203576578</v>
@@ -953,16 +953,16 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>144.4888345511683</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1057,19 +1057,19 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>52.10844059186277</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1099,7 +1099,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1108,13 +1108,13 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>234.4970761400735</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1130,28 +1130,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>62.15398405320674</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>147.5273527511106</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>151.9313162448612</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,7 +1178,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -1187,13 +1187,13 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -1227,10 +1227,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H9" t="n">
-        <v>104.3883541553076</v>
+        <v>104.3883541553075</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250817</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229329</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1288,19 +1288,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>25.31590541686258</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1336,7 +1336,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1345,10 +1345,10 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>268.6413070582236</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1376,10 +1376,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722634</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417115</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
         <v>411.9645167896915</v>
@@ -1388,7 +1388,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274074</v>
+        <v>81.7791350527408</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
@@ -1427,13 +1427,13 @@
         <v>251.078595249801</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701343</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.7311006784691</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -1467,7 +1467,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014446</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1528,10 +1528,10 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>109.0465449382717</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -1546,7 +1546,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1576,25 +1576,25 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>108.3636623682363</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1613,7 +1613,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722626</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
@@ -1625,7 +1625,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274071</v>
+        <v>81.77913505274049</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
@@ -1704,7 +1704,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1768,22 +1768,22 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1813,25 +1813,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>114.4449296640512</v>
       </c>
       <c r="X16" t="n">
-        <v>120.8530343211906</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1856,13 +1856,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896912</v>
       </c>
       <c r="H17" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051993</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
@@ -1941,7 +1941,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1999,7 +1999,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>168.7913288562259</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -2011,7 +2011,7 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>70.41761368552093</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -2047,28 +2047,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>98.92370107808141</v>
       </c>
       <c r="S19" t="n">
-        <v>186.8801586578918</v>
+        <v>186.8801586578919</v>
       </c>
       <c r="T19" t="n">
-        <v>210.5069097326778</v>
+        <v>210.5069097326779</v>
       </c>
       <c r="U19" t="n">
         <v>275.1967010728659</v>
       </c>
       <c r="V19" t="n">
-        <v>241.0969919981166</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>275.4823470108796</v>
       </c>
       <c r="X19" t="n">
-        <v>214.6690040633257</v>
+        <v>50.9245777862722</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>207.5440020263834</v>
       </c>
     </row>
     <row r="20">
@@ -2093,13 +2093,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896912</v>
       </c>
       <c r="H20" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,13 +2129,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U20" t="n">
-        <v>251.0785952498017</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2178,7 +2178,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2236,19 +2236,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>168.7913288562259</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>156.2061697729164</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>77.43647234060008</v>
       </c>
       <c r="F22" t="n">
-        <v>70.41761368552106</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -2284,19 +2284,19 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>98.92370107808138</v>
       </c>
       <c r="S22" t="n">
-        <v>186.8801586578918</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>210.5069097326778</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>275.1967010728659</v>
       </c>
       <c r="V22" t="n">
-        <v>241.0969919981166</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>275.4823470108796</v>
@@ -2305,7 +2305,7 @@
         <v>214.6690040633257</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>207.5440020263834</v>
       </c>
     </row>
     <row r="23">
@@ -2336,7 +2336,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051993</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2415,7 +2415,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2476,16 +2476,16 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>51.55100268455854</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>137.5748216925009</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>70.41761368552068</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -2521,13 +2521,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>98.92370107808138</v>
       </c>
       <c r="S25" t="n">
-        <v>186.8801586578919</v>
+        <v>186.8801586578918</v>
       </c>
       <c r="T25" t="n">
-        <v>210.5069097326779</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>275.1967010728659</v>
@@ -2539,10 +2539,10 @@
         <v>275.4823470108796</v>
       </c>
       <c r="X25" t="n">
-        <v>214.6690040633258</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>207.5440020263834</v>
       </c>
     </row>
     <row r="26">
@@ -2564,7 +2564,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417112</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
         <v>411.9645167896915</v>
@@ -2716,7 +2716,7 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>25.69773831382532</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -2725,13 +2725,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>155.4529171376662</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>99.37859413856053</v>
+        <v>99.37859413856059</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,28 +2758,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>98.92370107808139</v>
       </c>
       <c r="S28" t="n">
-        <v>186.8801586578918</v>
+        <v>186.8801586578919</v>
       </c>
       <c r="T28" t="n">
-        <v>210.5069097326778</v>
+        <v>210.5069097326779</v>
       </c>
       <c r="U28" t="n">
-        <v>38.69171859344328</v>
+        <v>275.1967010728659</v>
       </c>
       <c r="V28" t="n">
-        <v>241.0969919981166</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>275.4823470108796</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>214.6690040633257</v>
+        <v>214.6690040633258</v>
       </c>
       <c r="Y28" t="n">
-        <v>207.5440020263833</v>
+        <v>207.5440020263834</v>
       </c>
     </row>
     <row r="29">
@@ -2804,7 +2804,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896921</v>
       </c>
       <c r="H29" t="n">
         <v>305.2872491113177</v>
@@ -2947,7 +2947,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>168.7913288562259</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -2959,7 +2959,7 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>70.41761368552099</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -2995,28 +2995,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>98.92370107808142</v>
       </c>
       <c r="S31" t="n">
-        <v>186.8801586578918</v>
+        <v>186.8801586578919</v>
       </c>
       <c r="T31" t="n">
-        <v>210.5069097326778</v>
+        <v>210.5069097326779</v>
       </c>
       <c r="U31" t="n">
         <v>275.1967010728659</v>
       </c>
       <c r="V31" t="n">
-        <v>241.0969919981166</v>
+        <v>111.7379207338256</v>
       </c>
       <c r="W31" t="n">
-        <v>275.4823470108796</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>214.6690040633257</v>
+        <v>214.6690040633258</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>207.5440020263834</v>
       </c>
     </row>
     <row r="32">
@@ -3041,7 +3041,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896921</v>
       </c>
       <c r="H32" t="n">
         <v>305.2872491113177</v>
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>111.7000900522967</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C34" t="n">
-        <v>99.1149309689872</v>
+        <v>99.11493096898715</v>
       </c>
       <c r="D34" t="n">
-        <v>80.48358288857172</v>
+        <v>80.48358288857168</v>
       </c>
       <c r="E34" t="n">
-        <v>78.30207251692853</v>
+        <v>78.30207251692849</v>
       </c>
       <c r="F34" t="n">
-        <v>77.28915789329061</v>
+        <v>77.28915789329056</v>
       </c>
       <c r="G34" t="n">
-        <v>98.36167833373695</v>
+        <v>98.3616783337369</v>
       </c>
       <c r="H34" t="n">
-        <v>80.78193823789549</v>
+        <v>80.78193823789545</v>
       </c>
       <c r="I34" t="n">
-        <v>42.28735533463134</v>
+        <v>42.2873553346313</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.83246227415215</v>
+        <v>41.83246227415211</v>
       </c>
       <c r="S34" t="n">
         <v>129.7889198539626</v>
@@ -3244,16 +3244,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V34" t="n">
-        <v>184.0057531941874</v>
+        <v>184.0057531941873</v>
       </c>
       <c r="W34" t="n">
-        <v>218.3911082069504</v>
+        <v>218.3911082069503</v>
       </c>
       <c r="X34" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y34" t="n">
-        <v>150.4527632224542</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
     <row r="35">
@@ -3278,7 +3278,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896921</v>
       </c>
       <c r="H35" t="n">
         <v>305.2872491113177</v>
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>111.7000900522967</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C37" t="n">
-        <v>99.1149309689872</v>
+        <v>99.11493096898717</v>
       </c>
       <c r="D37" t="n">
-        <v>80.48358288857172</v>
+        <v>80.48358288857169</v>
       </c>
       <c r="E37" t="n">
-        <v>78.30207251692853</v>
+        <v>78.3020725169285</v>
       </c>
       <c r="F37" t="n">
-        <v>77.28915789329061</v>
+        <v>77.28915789329058</v>
       </c>
       <c r="G37" t="n">
-        <v>98.36167833373695</v>
+        <v>98.36167833373692</v>
       </c>
       <c r="H37" t="n">
-        <v>80.78193823789549</v>
+        <v>80.78193823789546</v>
       </c>
       <c r="I37" t="n">
-        <v>42.28735533463134</v>
+        <v>42.28735533463131</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.83246227415215</v>
+        <v>41.83246227415212</v>
       </c>
       <c r="S37" t="n">
         <v>129.7889198539626</v>
@@ -3481,16 +3481,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V37" t="n">
-        <v>184.0057531941874</v>
+        <v>184.0057531941873</v>
       </c>
       <c r="W37" t="n">
-        <v>218.3911082069504</v>
+        <v>218.3911082069503</v>
       </c>
       <c r="X37" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y37" t="n">
-        <v>150.4527632224542</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
     <row r="38">
@@ -3557,7 +3557,7 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U38" t="n">
-        <v>251.0785952498017</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>111.7000900522966</v>
+        <v>111.7000900522967</v>
       </c>
       <c r="C40" t="n">
-        <v>99.11493096898718</v>
+        <v>99.1149309689872</v>
       </c>
       <c r="D40" t="n">
-        <v>80.4835828885717</v>
+        <v>80.48358288857172</v>
       </c>
       <c r="E40" t="n">
-        <v>78.30207251692852</v>
+        <v>78.30207251692853</v>
       </c>
       <c r="F40" t="n">
-        <v>77.28915789329059</v>
+        <v>77.28915789329061</v>
       </c>
       <c r="G40" t="n">
-        <v>98.36167833373693</v>
+        <v>98.36167833373695</v>
       </c>
       <c r="H40" t="n">
-        <v>80.78193823789547</v>
+        <v>80.78193823789549</v>
       </c>
       <c r="I40" t="n">
-        <v>42.28735533463133</v>
+        <v>42.28735533463134</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.83246227415214</v>
+        <v>41.83246227415215</v>
       </c>
       <c r="S40" t="n">
         <v>129.7889198539626</v>
@@ -3718,16 +3718,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V40" t="n">
-        <v>184.0057531941873</v>
+        <v>184.0057531941874</v>
       </c>
       <c r="W40" t="n">
-        <v>218.3911082069503</v>
+        <v>218.3911082069504</v>
       </c>
       <c r="X40" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y40" t="n">
-        <v>150.4527632224541</v>
+        <v>150.4527632224542</v>
       </c>
     </row>
     <row r="41">
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>111.7000900522966</v>
+        <v>111.7000900522967</v>
       </c>
       <c r="C43" t="n">
-        <v>99.11493096898717</v>
+        <v>99.11493096898721</v>
       </c>
       <c r="D43" t="n">
-        <v>80.48358288857169</v>
+        <v>80.48358288857173</v>
       </c>
       <c r="E43" t="n">
-        <v>78.3020725169285</v>
+        <v>78.30207251692855</v>
       </c>
       <c r="F43" t="n">
-        <v>77.28915789329058</v>
+        <v>77.28915789329062</v>
       </c>
       <c r="G43" t="n">
-        <v>98.36167833373692</v>
+        <v>98.36167833373698</v>
       </c>
       <c r="H43" t="n">
-        <v>80.78193823789546</v>
+        <v>80.7819382378955</v>
       </c>
       <c r="I43" t="n">
-        <v>42.28735533463131</v>
+        <v>42.28735533463136</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.83246227415212</v>
+        <v>41.83246227415216</v>
       </c>
       <c r="S43" t="n">
         <v>129.7889198539626</v>
@@ -3955,16 +3955,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V43" t="n">
-        <v>184.0057531941873</v>
+        <v>184.0057531941874</v>
       </c>
       <c r="W43" t="n">
-        <v>218.3911082069503</v>
+        <v>218.3911082069504</v>
       </c>
       <c r="X43" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y43" t="n">
-        <v>150.4527632224541</v>
+        <v>150.4527632224542</v>
       </c>
     </row>
     <row r="44">
@@ -3995,7 +3995,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4074,7 +4074,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>111.7000900522967</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C46" t="n">
-        <v>99.1149309689872</v>
+        <v>99.11493096898717</v>
       </c>
       <c r="D46" t="n">
-        <v>80.48358288857172</v>
+        <v>80.48358288857169</v>
       </c>
       <c r="E46" t="n">
-        <v>78.30207251692853</v>
+        <v>78.3020725169285</v>
       </c>
       <c r="F46" t="n">
-        <v>77.28915789329061</v>
+        <v>77.28915789329058</v>
       </c>
       <c r="G46" t="n">
-        <v>98.36167833373695</v>
+        <v>98.36167833373692</v>
       </c>
       <c r="H46" t="n">
-        <v>80.78193823789549</v>
+        <v>80.78193823789546</v>
       </c>
       <c r="I46" t="n">
-        <v>42.28735533463134</v>
+        <v>42.28735533463133</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.83246227415215</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S46" t="n">
         <v>129.7889198539626</v>
@@ -4192,16 +4192,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V46" t="n">
-        <v>184.0057531941874</v>
+        <v>184.0057531941873</v>
       </c>
       <c r="W46" t="n">
-        <v>218.3911082069504</v>
+        <v>218.3911082069503</v>
       </c>
       <c r="X46" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y46" t="n">
-        <v>150.4527632224542</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
   </sheetData>
@@ -4304,16 +4304,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1993.54646147304</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="C2" t="n">
-        <v>1749.341643278937</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="D2" t="n">
-        <v>1749.341643278937</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="E2" t="n">
-        <v>1363.553390680693</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="F2" t="n">
         <v>952.5674858910851</v>
@@ -4328,19 +4328,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4364,16 +4364,16 @@
         <v>1993.54646147304</v>
       </c>
       <c r="V2" t="n">
-        <v>1993.54646147304</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W2" t="n">
-        <v>1993.54646147304</v>
+        <v>1346.11282670441</v>
       </c>
       <c r="X2" t="n">
-        <v>1993.54646147304</v>
+        <v>1346.11282670441</v>
       </c>
       <c r="Y2" t="n">
-        <v>1993.54646147304</v>
+        <v>1346.11282670441</v>
       </c>
     </row>
     <row r="3">
@@ -4383,49 +4383,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747047</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692492</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>129.2001442204943</v>
+        <v>113.6371076753678</v>
       </c>
       <c r="K3" t="n">
-        <v>384.4474646615928</v>
+        <v>368.8844281164663</v>
       </c>
       <c r="L3" t="n">
-        <v>789.0633827572647</v>
+        <v>773.5003462121382</v>
       </c>
       <c r="M3" t="n">
-        <v>1313.210296315296</v>
+        <v>1297.647259770169</v>
       </c>
       <c r="N3" t="n">
-        <v>1866.936832414847</v>
+        <v>1851.37379586972</v>
       </c>
       <c r="O3" t="n">
-        <v>2188.831293537797</v>
+        <v>2291.509718890064</v>
       </c>
       <c r="P3" t="n">
-        <v>2525.076107152626</v>
+        <v>2627.754532504893</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4437,13 +4437,13 @@
         <v>2488.762748073963</v>
       </c>
       <c r="T3" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U3" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V3" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
         <v>1572.325111207638</v>
@@ -4462,25 +4462,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C4" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D4" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E4" t="n">
-        <v>663.910013048764</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F4" t="n">
-        <v>517.0200655508536</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
-        <v>348.0202652891861</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I4" t="n">
         <v>53.94298182036445</v>
@@ -4507,31 +4507,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064342</v>
+        <v>471.4038777286579</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064342</v>
+        <v>456.3840257941342</v>
       </c>
       <c r="V4" t="n">
-        <v>728.1289842064342</v>
+        <v>456.3840257941342</v>
       </c>
       <c r="W4" t="n">
-        <v>728.1289842064342</v>
+        <v>456.3840257941342</v>
       </c>
       <c r="X4" t="n">
-        <v>728.1289842064342</v>
+        <v>456.3840257941342</v>
       </c>
       <c r="Y4" t="n">
-        <v>728.1289842064342</v>
+        <v>235.5914466506042</v>
       </c>
     </row>
     <row r="5">
@@ -4541,25 +4541,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1293.977907210731</v>
+        <v>1341.294330781294</v>
       </c>
       <c r="C5" t="n">
-        <v>925.0153902703189</v>
+        <v>972.3318138408822</v>
       </c>
       <c r="D5" t="n">
-        <v>925.0153902703189</v>
+        <v>614.0661152341316</v>
       </c>
       <c r="E5" t="n">
-        <v>539.2271376720746</v>
+        <v>228.2778626358874</v>
       </c>
       <c r="F5" t="n">
-        <v>128.241232882467</v>
+        <v>221.3323618866839</v>
       </c>
       <c r="G5" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
@@ -4568,16 +4568,16 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4592,25 +4592,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2423.485734520778</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U5" t="n">
-        <v>2423.485734520778</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="V5" t="n">
-        <v>2423.485734520778</v>
+        <v>2101.359929106496</v>
       </c>
       <c r="W5" t="n">
-        <v>2070.717079250664</v>
+        <v>2101.359929106496</v>
       </c>
       <c r="X5" t="n">
-        <v>2070.717079250664</v>
+        <v>1727.894170845416</v>
       </c>
       <c r="Y5" t="n">
-        <v>1680.577747274852</v>
+        <v>1727.894170845416</v>
       </c>
     </row>
     <row r="6">
@@ -4620,25 +4620,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C6" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E6" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I6" t="n">
         <v>53.94298182036445</v>
@@ -4647,28 +4647,28 @@
         <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>384.4474646615928</v>
+        <v>266.206002764199</v>
       </c>
       <c r="L6" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M6" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N6" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O6" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P6" t="n">
-        <v>2627.754532504893</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S6" t="n">
         <v>2488.762748073963</v>
@@ -4683,10 +4683,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X6" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y6" t="n">
         <v>1156.713312237151</v>
@@ -4699,22 +4699,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>728.1289842064344</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C7" t="n">
-        <v>728.1289842064344</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D7" t="n">
-        <v>675.4941957298054</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E7" t="n">
-        <v>527.5811021474123</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F7" t="n">
-        <v>380.6911546495019</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G7" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H7" t="n">
         <v>53.94298182036445</v>
@@ -4729,46 +4729,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064344</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064344</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064344</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064344</v>
+        <v>290.8087152951862</v>
       </c>
       <c r="V7" t="n">
-        <v>728.1289842064344</v>
+        <v>290.8087152951862</v>
       </c>
       <c r="W7" t="n">
-        <v>728.1289842064344</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X7" t="n">
-        <v>728.1289842064344</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y7" t="n">
-        <v>728.1289842064344</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="8">
@@ -4778,19 +4778,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1838.661061815299</v>
+        <v>1408.083041312479</v>
       </c>
       <c r="C8" t="n">
-        <v>1838.661061815299</v>
+        <v>1345.301239238533</v>
       </c>
       <c r="D8" t="n">
-        <v>1480.395363208549</v>
+        <v>1345.301239238533</v>
       </c>
       <c r="E8" t="n">
-        <v>1094.607110610304</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="F8" t="n">
-        <v>683.6212058206968</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G8" t="n">
         <v>534.603677789272</v>
@@ -4799,16 +4799,16 @@
         <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533143</v>
       </c>
       <c r="K8" t="n">
         <v>463.9616490733129</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4817,37 +4817,37 @@
         <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
-        <v>2238.843319642689</v>
+        <v>2238.84331964269</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="T8" t="n">
-        <v>2423.485734520778</v>
+        <v>2478.514423990286</v>
       </c>
       <c r="U8" t="n">
-        <v>2169.72394915887</v>
+        <v>2478.514423990286</v>
       </c>
       <c r="V8" t="n">
-        <v>1838.661061815299</v>
+        <v>2147.451536646715</v>
       </c>
       <c r="W8" t="n">
-        <v>1838.661061815299</v>
+        <v>1794.682881376601</v>
       </c>
       <c r="X8" t="n">
-        <v>1838.661061815299</v>
+        <v>1794.682881376601</v>
       </c>
       <c r="Y8" t="n">
-        <v>1838.661061815299</v>
+        <v>1794.682881376601</v>
       </c>
     </row>
     <row r="9">
@@ -4872,22 +4872,22 @@
         <v>359.3385232961344</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424005</v>
       </c>
       <c r="H9" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J9" t="n">
         <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>266.2060027641992</v>
+        <v>384.4474646615929</v>
       </c>
       <c r="L9" t="n">
-        <v>670.8219208598711</v>
+        <v>789.0633827572649</v>
       </c>
       <c r="M9" t="n">
         <v>1194.968834417902</v>
@@ -4936,31 +4936,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>546.4805193761947</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="C10" t="n">
-        <v>377.5443364482878</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="D10" t="n">
-        <v>227.4276970359521</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="E10" t="n">
-        <v>79.51460345355898</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
@@ -4969,7 +4969,7 @@
         <v>237.8190324477911</v>
       </c>
       <c r="M10" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658211</v>
       </c>
       <c r="N10" t="n">
         <v>529.6040388502502</v>
@@ -4978,34 +4978,34 @@
         <v>649.2617893594903</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064344</v>
+        <v>579.9823256406186</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064344</v>
+        <v>579.9823256406186</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064344</v>
+        <v>579.9823256406186</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064344</v>
+        <v>308.6274700262513</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064344</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="W10" t="n">
-        <v>728.1289842064344</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="X10" t="n">
-        <v>728.1289842064344</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="Y10" t="n">
-        <v>728.1289842064344</v>
+        <v>53.94298182036446</v>
       </c>
     </row>
     <row r="11">
@@ -5015,13 +5015,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550604</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C11" t="n">
-        <v>2059.358867610193</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E11" t="n">
         <v>1315.304916405196</v>
@@ -5036,55 +5036,55 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M11" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231262</v>
       </c>
       <c r="T11" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141866</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.357857465303</v>
+        <v>4262.357857465299</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.294970121732</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851618</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590538</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614726</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="12">
@@ -5115,25 +5115,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J12" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="K12" t="n">
-        <v>508.1073603047986</v>
+        <v>508.1073603047984</v>
       </c>
       <c r="L12" t="n">
         <v>1122.004430061687</v>
       </c>
       <c r="M12" t="n">
-        <v>1819.161927111987</v>
+        <v>1890.372576454148</v>
       </c>
       <c r="N12" t="n">
-        <v>2623.573505376138</v>
+        <v>2192.176613678825</v>
       </c>
       <c r="O12" t="n">
-        <v>2623.573505376138</v>
+        <v>2440.930027762787</v>
       </c>
       <c r="P12" t="n">
         <v>2623.573505376138</v>
@@ -5173,49 +5173,49 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>879.2482765610114</v>
+        <v>781.8780707889948</v>
       </c>
       <c r="C13" t="n">
-        <v>710.3120936331045</v>
+        <v>781.8780707889948</v>
       </c>
       <c r="D13" t="n">
-        <v>560.1954542207687</v>
+        <v>671.7300455988213</v>
       </c>
       <c r="E13" t="n">
-        <v>412.2823606383756</v>
+        <v>523.8169520164281</v>
       </c>
       <c r="F13" t="n">
-        <v>265.3924131404653</v>
+        <v>376.9270045185178</v>
       </c>
       <c r="G13" t="n">
-        <v>97.21709146028589</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H13" t="n">
-        <v>97.21709146028589</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J13" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241956</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688072</v>
+        <v>259.785188168807</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799362</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471187</v>
       </c>
       <c r="N13" t="n">
-        <v>1049.608084974667</v>
+        <v>1049.608084974666</v>
       </c>
       <c r="O13" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P13" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q13" t="n">
         <v>1498.916270557902</v>
@@ -5224,25 +5224,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S13" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473454</v>
       </c>
       <c r="T13" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473454</v>
       </c>
       <c r="U13" t="n">
-        <v>1389.458025741502</v>
+        <v>1009.867621687012</v>
       </c>
       <c r="V13" t="n">
-        <v>1389.458025741502</v>
+        <v>1009.867621687012</v>
       </c>
       <c r="W13" t="n">
-        <v>1100.040855704541</v>
+        <v>1009.867621687012</v>
       </c>
       <c r="X13" t="n">
-        <v>1100.040855704541</v>
+        <v>781.8780707889948</v>
       </c>
       <c r="Y13" t="n">
-        <v>879.2482765610114</v>
+        <v>781.8780707889948</v>
       </c>
     </row>
     <row r="14">
@@ -5252,34 +5252,34 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C14" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E14" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G14" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514086</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L14" t="n">
         <v>1590.888347795206</v>
@@ -5300,28 +5300,28 @@
         <v>4801.62743720783</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T14" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="15">
@@ -5352,31 +5352,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K15" t="n">
-        <v>97.21709146028587</v>
+        <v>373.5080755174547</v>
       </c>
       <c r="L15" t="n">
-        <v>711.1141612171748</v>
+        <v>987.4051452743433</v>
       </c>
       <c r="M15" t="n">
-        <v>1479.482307609636</v>
+        <v>1307.740464804045</v>
       </c>
       <c r="N15" t="n">
-        <v>2283.893885873787</v>
+        <v>2112.152043068196</v>
       </c>
       <c r="O15" t="n">
-        <v>2623.573505376138</v>
+        <v>2360.905457152158</v>
       </c>
       <c r="P15" t="n">
-        <v>2623.573505376138</v>
+        <v>2543.548934765509</v>
       </c>
       <c r="Q15" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R15" t="n">
         <v>2623.573505376138</v>
@@ -5410,40 +5410,40 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>208.7516828383384</v>
+        <v>562.3990000507113</v>
       </c>
       <c r="C16" t="n">
-        <v>208.7516828383384</v>
+        <v>562.3990000507113</v>
       </c>
       <c r="D16" t="n">
-        <v>208.7516828383384</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="E16" t="n">
-        <v>208.7516828383384</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="F16" t="n">
-        <v>208.7516828383384</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G16" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H16" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J16" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241956</v>
       </c>
       <c r="K16" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471196</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
@@ -5452,34 +5452,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P16" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q16" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
         <v>1387.841167119728</v>
       </c>
       <c r="S16" t="n">
-        <v>1387.841167119728</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T16" t="n">
-        <v>1164.055751909234</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="U16" t="n">
-        <v>874.9271131227924</v>
+        <v>898.7925182488384</v>
       </c>
       <c r="V16" t="n">
-        <v>620.2426249169056</v>
+        <v>898.7925182488384</v>
       </c>
       <c r="W16" t="n">
-        <v>330.825454879945</v>
+        <v>783.1915791942413</v>
       </c>
       <c r="X16" t="n">
-        <v>208.7516828383384</v>
+        <v>783.1915791942413</v>
       </c>
       <c r="Y16" t="n">
-        <v>208.7516828383384</v>
+        <v>562.3990000507113</v>
       </c>
     </row>
     <row r="17">
@@ -5489,19 +5489,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C17" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E17" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G17" t="n">
         <v>488.193237080547</v>
@@ -5510,34 +5510,34 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514093</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795208</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M17" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O17" t="n">
-        <v>3889.732883643325</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S17" t="n">
         <v>4726.561275231264</v>
@@ -5549,16 +5549,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W17" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="18">
@@ -5589,31 +5589,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>263.5382936126482</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K18" t="n">
-        <v>674.4285624571609</v>
+        <v>108.1187262680461</v>
       </c>
       <c r="L18" t="n">
-        <v>1288.32563221405</v>
+        <v>722.0157960249347</v>
       </c>
       <c r="M18" t="n">
-        <v>1288.32563221405</v>
+        <v>1490.383942417396</v>
       </c>
       <c r="N18" t="n">
-        <v>2092.7372104782</v>
+        <v>2294.795520681547</v>
       </c>
       <c r="O18" t="n">
-        <v>2623.573505376138</v>
+        <v>2543.548934765509</v>
       </c>
       <c r="P18" t="n">
-        <v>2623.573505376138</v>
+        <v>2543.548934765509</v>
       </c>
       <c r="Q18" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R18" t="n">
         <v>2623.573505376138</v>
@@ -5647,31 +5647,31 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>168.3459941729331</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C19" t="n">
-        <v>168.3459941729331</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D19" t="n">
-        <v>168.3459941729331</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E19" t="n">
-        <v>168.3459941729331</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J19" t="n">
-        <v>120.53002873665</v>
+        <v>120.5300287366501</v>
       </c>
       <c r="K19" t="n">
         <v>281.6456777937158</v>
@@ -5689,34 +5689,34 @@
         <v>1349.064531854789</v>
       </c>
       <c r="P19" t="n">
-        <v>1536.594541272927</v>
+        <v>1536.594541272926</v>
       </c>
       <c r="Q19" t="n">
         <v>1586.358229057537</v>
       </c>
       <c r="R19" t="n">
-        <v>1586.358229057537</v>
+        <v>1486.435298675636</v>
       </c>
       <c r="S19" t="n">
-        <v>1397.590392029363</v>
+        <v>1297.667461647462</v>
       </c>
       <c r="T19" t="n">
-        <v>1184.957149875143</v>
+        <v>1085.034219493242</v>
       </c>
       <c r="U19" t="n">
-        <v>906.9806841449755</v>
+        <v>807.057753763075</v>
       </c>
       <c r="V19" t="n">
-        <v>663.4483689953627</v>
+        <v>807.057753763075</v>
       </c>
       <c r="W19" t="n">
-        <v>385.1833720146763</v>
+        <v>528.7927567823884</v>
       </c>
       <c r="X19" t="n">
-        <v>168.3459941729331</v>
+        <v>477.3537893215074</v>
       </c>
       <c r="Y19" t="n">
-        <v>168.3459941729331</v>
+        <v>267.7133832342514</v>
       </c>
     </row>
     <row r="20">
@@ -5726,19 +5726,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C20" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E20" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G20" t="n">
         <v>488.193237080547</v>
@@ -5747,13 +5747,13 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L20" t="n">
         <v>1590.888347795207</v>
@@ -5762,7 +5762,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O20" t="n">
         <v>3889.732883643323</v>
@@ -5774,10 +5774,10 @@
         <v>4801.62743720783</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T20" t="n">
         <v>4515.972600141868</v>
@@ -5786,16 +5786,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W20" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="21">
@@ -5826,31 +5826,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K21" t="n">
         <v>508.1073603047985</v>
       </c>
       <c r="L21" t="n">
-        <v>508.1073603047985</v>
+        <v>738.0704661731477</v>
       </c>
       <c r="M21" t="n">
-        <v>1138.699705022018</v>
+        <v>1506.438612565609</v>
       </c>
       <c r="N21" t="n">
-        <v>1138.699705022018</v>
+        <v>1886.437184265811</v>
       </c>
       <c r="O21" t="n">
-        <v>1808.163466324677</v>
+        <v>2135.190598349773</v>
       </c>
       <c r="P21" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q21" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R21" t="n">
         <v>2623.573505376138</v>
@@ -5884,28 +5884,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>168.3459941729328</v>
+        <v>333.2197602618176</v>
       </c>
       <c r="C22" t="n">
-        <v>168.3459941729328</v>
+        <v>175.4357503901848</v>
       </c>
       <c r="D22" t="n">
-        <v>168.3459941729328</v>
+        <v>175.4357503901848</v>
       </c>
       <c r="E22" t="n">
-        <v>168.3459941729328</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J22" t="n">
         <v>120.53002873665</v>
@@ -5917,7 +5917,7 @@
         <v>540.2879676172993</v>
       </c>
       <c r="M22" t="n">
-        <v>822.7849551969364</v>
+        <v>822.7849551969362</v>
       </c>
       <c r="N22" t="n">
         <v>1104.259309036938</v>
@@ -5932,28 +5932,28 @@
         <v>1586.358229057537</v>
       </c>
       <c r="R22" t="n">
-        <v>1586.358229057537</v>
+        <v>1486.435298675636</v>
       </c>
       <c r="S22" t="n">
-        <v>1397.590392029363</v>
+        <v>1486.435298675636</v>
       </c>
       <c r="T22" t="n">
-        <v>1184.957149875143</v>
+        <v>1486.435298675636</v>
       </c>
       <c r="U22" t="n">
-        <v>906.9806841449753</v>
+        <v>1208.458832945469</v>
       </c>
       <c r="V22" t="n">
-        <v>663.4483689953624</v>
+        <v>1208.458832945469</v>
       </c>
       <c r="W22" t="n">
-        <v>385.183372014676</v>
+        <v>930.1938359647822</v>
       </c>
       <c r="X22" t="n">
-        <v>168.3459941729328</v>
+        <v>713.356458123039</v>
       </c>
       <c r="Y22" t="n">
-        <v>168.3459941729328</v>
+        <v>503.7160520357831</v>
       </c>
     </row>
     <row r="23">
@@ -5963,7 +5963,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C23" t="n">
         <v>2059.358867610191</v>
@@ -5972,19 +5972,19 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G23" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J23" t="n">
         <v>365.8813331823787</v>
@@ -5993,25 +5993,25 @@
         <v>889.2841917514083</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M23" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O23" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S23" t="n">
         <v>4726.561275231264</v>
@@ -6023,16 +6023,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W23" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="24">
@@ -6063,22 +6063,22 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K24" t="n">
-        <v>97.21709146028587</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L24" t="n">
-        <v>97.21709146028587</v>
+        <v>738.0704661731477</v>
       </c>
       <c r="M24" t="n">
-        <v>323.6581146605669</v>
+        <v>1204.259384505797</v>
       </c>
       <c r="N24" t="n">
-        <v>1128.069692924718</v>
+        <v>1548.780040143415</v>
       </c>
       <c r="O24" t="n">
         <v>1797.533454227377</v>
@@ -6121,34 +6121,34 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>168.345994172933</v>
+        <v>288.2532776997398</v>
       </c>
       <c r="C25" t="n">
-        <v>168.345994172933</v>
+        <v>236.1815578163474</v>
       </c>
       <c r="D25" t="n">
-        <v>168.345994172933</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E25" t="n">
-        <v>168.345994172933</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J25" t="n">
         <v>120.53002873665</v>
       </c>
       <c r="K25" t="n">
-        <v>281.6456777937157</v>
+        <v>281.6456777937158</v>
       </c>
       <c r="L25" t="n">
         <v>540.2879676172993</v>
@@ -6169,28 +6169,28 @@
         <v>1586.358229057537</v>
       </c>
       <c r="R25" t="n">
-        <v>1586.358229057537</v>
+        <v>1486.435298675636</v>
       </c>
       <c r="S25" t="n">
-        <v>1397.590392029363</v>
+        <v>1297.667461647462</v>
       </c>
       <c r="T25" t="n">
-        <v>1184.957149875143</v>
+        <v>1297.667461647462</v>
       </c>
       <c r="U25" t="n">
-        <v>906.9806841449754</v>
+        <v>1019.690995917295</v>
       </c>
       <c r="V25" t="n">
-        <v>663.4483689953627</v>
+        <v>776.1586807676822</v>
       </c>
       <c r="W25" t="n">
-        <v>385.1833720146763</v>
+        <v>497.8936837869958</v>
       </c>
       <c r="X25" t="n">
-        <v>168.345994172933</v>
+        <v>497.8936837869958</v>
       </c>
       <c r="Y25" t="n">
-        <v>168.345994172933</v>
+        <v>288.2532776997398</v>
       </c>
     </row>
     <row r="26">
@@ -6206,16 +6206,16 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G26" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H26" t="n">
         <v>179.8222783822462</v>
@@ -6224,28 +6224,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514093</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795208</v>
       </c>
       <c r="M26" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O26" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643325</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R26" t="n">
         <v>4860.854573014292</v>
@@ -6303,28 +6303,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
-        <v>97.21709146028584</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K27" t="n">
-        <v>97.21709146028584</v>
+        <v>419.7848952835977</v>
       </c>
       <c r="L27" t="n">
-        <v>711.1141612171745</v>
+        <v>649.7480011519468</v>
       </c>
       <c r="M27" t="n">
-        <v>1479.482307609636</v>
+        <v>970.0833206816486</v>
       </c>
       <c r="N27" t="n">
-        <v>2283.893885873787</v>
+        <v>1774.494898945799</v>
       </c>
       <c r="O27" t="n">
-        <v>2623.573505376138</v>
+        <v>2023.248313029762</v>
       </c>
       <c r="P27" t="n">
-        <v>2623.573505376138</v>
+        <v>2543.548934765509</v>
       </c>
       <c r="Q27" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R27" t="n">
         <v>2623.573505376138</v>
@@ -6358,46 +6358,46 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>197.5995097820644</v>
+        <v>380.5799698340758</v>
       </c>
       <c r="C28" t="n">
-        <v>197.5995097820644</v>
+        <v>380.5799698340758</v>
       </c>
       <c r="D28" t="n">
-        <v>197.5995097820644</v>
+        <v>354.6226584059694</v>
       </c>
       <c r="E28" t="n">
-        <v>197.5995097820644</v>
+        <v>354.6226584059694</v>
       </c>
       <c r="F28" t="n">
-        <v>197.5995097820644</v>
+        <v>354.6226584059694</v>
       </c>
       <c r="G28" t="n">
-        <v>197.5995097820644</v>
+        <v>197.5995097820642</v>
       </c>
       <c r="H28" t="n">
-        <v>197.5995097820644</v>
+        <v>197.5995097820642</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J28" t="n">
-        <v>120.5300287366501</v>
+        <v>120.53002873665</v>
       </c>
       <c r="K28" t="n">
-        <v>281.6456777937159</v>
+        <v>281.6456777937158</v>
       </c>
       <c r="L28" t="n">
-        <v>540.2879676172995</v>
+        <v>540.2879676172993</v>
       </c>
       <c r="M28" t="n">
-        <v>822.7849551969368</v>
+        <v>822.7849551969364</v>
       </c>
       <c r="N28" t="n">
-        <v>1104.259309036939</v>
+        <v>1104.259309036938</v>
       </c>
       <c r="O28" t="n">
-        <v>1349.06453185479</v>
+        <v>1349.064531854789</v>
       </c>
       <c r="P28" t="n">
         <v>1536.594541272927</v>
@@ -6406,28 +6406,28 @@
         <v>1586.358229057537</v>
       </c>
       <c r="R28" t="n">
-        <v>1586.358229057537</v>
+        <v>1486.435298675636</v>
       </c>
       <c r="S28" t="n">
-        <v>1397.590392029364</v>
+        <v>1297.667461647463</v>
       </c>
       <c r="T28" t="n">
-        <v>1184.957149875144</v>
+        <v>1085.034219493243</v>
       </c>
       <c r="U28" t="n">
-        <v>1145.874605841363</v>
+        <v>807.057753763075</v>
       </c>
       <c r="V28" t="n">
-        <v>902.3422906917499</v>
+        <v>807.057753763075</v>
       </c>
       <c r="W28" t="n">
-        <v>624.0772937110635</v>
+        <v>807.057753763075</v>
       </c>
       <c r="X28" t="n">
-        <v>407.2399158693203</v>
+        <v>590.2203759213318</v>
       </c>
       <c r="Y28" t="n">
-        <v>197.5995097820644</v>
+        <v>380.5799698340758</v>
       </c>
     </row>
     <row r="29">
@@ -6437,76 +6437,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155884</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805465</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822457</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514093</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795208</v>
       </c>
       <c r="M29" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O29" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643325</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T29" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="30">
@@ -6537,28 +6537,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J30" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="K30" t="n">
-        <v>97.21709146028584</v>
+        <v>222.5746515181233</v>
       </c>
       <c r="L30" t="n">
-        <v>359.7015465322561</v>
+        <v>836.471721275012</v>
       </c>
       <c r="M30" t="n">
-        <v>1128.069692924718</v>
+        <v>1604.839867667474</v>
       </c>
       <c r="N30" t="n">
-        <v>1128.069692924718</v>
+        <v>1604.839867667474</v>
       </c>
       <c r="O30" t="n">
-        <v>1797.533454227377</v>
+        <v>2274.303628970133</v>
       </c>
       <c r="P30" t="n">
-        <v>2317.834075963124</v>
+        <v>2543.548934765509</v>
       </c>
       <c r="Q30" t="n">
         <v>2612.943493278838</v>
@@ -6595,46 +6595,46 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>168.3459941729334</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C31" t="n">
-        <v>168.3459941729334</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D31" t="n">
-        <v>168.3459941729334</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E31" t="n">
-        <v>168.3459941729334</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J31" t="n">
-        <v>120.53002873665</v>
+        <v>120.5300287366503</v>
       </c>
       <c r="K31" t="n">
-        <v>281.6456777937158</v>
+        <v>281.645677793716</v>
       </c>
       <c r="L31" t="n">
         <v>540.2879676172995</v>
       </c>
       <c r="M31" t="n">
-        <v>822.7849551969366</v>
+        <v>822.7849551969364</v>
       </c>
       <c r="N31" t="n">
         <v>1104.259309036938</v>
       </c>
       <c r="O31" t="n">
-        <v>1349.06453185479</v>
+        <v>1349.064531854789</v>
       </c>
       <c r="P31" t="n">
         <v>1536.594541272927</v>
@@ -6643,28 +6643,28 @@
         <v>1586.358229057537</v>
       </c>
       <c r="R31" t="n">
-        <v>1586.358229057537</v>
+        <v>1486.435298675636</v>
       </c>
       <c r="S31" t="n">
-        <v>1397.590392029364</v>
+        <v>1297.667461647462</v>
       </c>
       <c r="T31" t="n">
-        <v>1184.957149875143</v>
+        <v>1085.034219493242</v>
       </c>
       <c r="U31" t="n">
-        <v>906.9806841449757</v>
+        <v>807.0577537630746</v>
       </c>
       <c r="V31" t="n">
-        <v>663.448368995363</v>
+        <v>694.1911671632507</v>
       </c>
       <c r="W31" t="n">
-        <v>385.1833720146765</v>
+        <v>694.1911671632507</v>
       </c>
       <c r="X31" t="n">
-        <v>168.3459941729334</v>
+        <v>477.3537893215075</v>
       </c>
       <c r="Y31" t="n">
-        <v>168.3459941729334</v>
+        <v>267.7133832342515</v>
       </c>
     </row>
     <row r="32">
@@ -6674,10 +6674,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D32" t="n">
         <v>1701.093169003441</v>
@@ -6686,64 +6686,64 @@
         <v>1315.304916405197</v>
       </c>
       <c r="F32" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H32" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514093</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795208</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M32" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O32" t="n">
-        <v>3889.732883643325</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q32" t="n">
         <v>4801.627437207831</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T32" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y32" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="33">
@@ -6774,31 +6774,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J33" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="K33" t="n">
-        <v>508.1073603047985</v>
+        <v>222.5746515181233</v>
       </c>
       <c r="L33" t="n">
-        <v>1122.004430061687</v>
+        <v>836.471721275012</v>
       </c>
       <c r="M33" t="n">
-        <v>1890.372576454149</v>
+        <v>1423.179110240432</v>
       </c>
       <c r="N33" t="n">
-        <v>2623.573505376138</v>
+        <v>1423.179110240432</v>
       </c>
       <c r="O33" t="n">
-        <v>2623.573505376138</v>
+        <v>2092.642871543091</v>
       </c>
       <c r="P33" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="Q33" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R33" t="n">
         <v>2623.573505376138</v>
@@ -6832,19 +6832,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>659.4602391108331</v>
+        <v>659.4602391108333</v>
       </c>
       <c r="C34" t="n">
-        <v>559.3441472229672</v>
+        <v>559.3441472229674</v>
       </c>
       <c r="D34" t="n">
-        <v>478.0475988506726</v>
+        <v>478.0475988506728</v>
       </c>
       <c r="E34" t="n">
-        <v>398.9545963083205</v>
+        <v>398.9545963083208</v>
       </c>
       <c r="F34" t="n">
-        <v>320.8847398504512</v>
+        <v>320.8847398504515</v>
       </c>
       <c r="G34" t="n">
         <v>221.5295092103129</v>
@@ -6853,16 +6853,16 @@
         <v>139.9315917982973</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J34" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525401</v>
       </c>
       <c r="K34" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254958</v>
       </c>
       <c r="L34" t="n">
-        <v>709.848946864969</v>
+        <v>709.8489468649693</v>
       </c>
       <c r="M34" t="n">
         <v>1048.866260860496</v>
@@ -6877,7 +6877,7 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q34" t="n">
-        <v>2038.520840384656</v>
+        <v>2038.520840384657</v>
       </c>
       <c r="R34" t="n">
         <v>1996.265827986523</v>
@@ -6889,7 +6889,7 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U34" t="n">
-        <v>1489.892037025263</v>
+        <v>1489.892037025262</v>
       </c>
       <c r="V34" t="n">
         <v>1304.027639859417</v>
@@ -6898,10 +6898,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X34" t="n">
-        <v>924.2611010045207</v>
+        <v>924.2611010045209</v>
       </c>
       <c r="Y34" t="n">
-        <v>772.2886129010317</v>
+        <v>772.2886129010319</v>
       </c>
     </row>
     <row r="35">
@@ -6911,37 +6911,37 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E35" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H35" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823781</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514077</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M35" t="n">
         <v>2388.164701515097</v>
@@ -6956,31 +6956,31 @@
         <v>4454.632848899127</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T35" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="36">
@@ -7011,31 +7011,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J36" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="K36" t="n">
-        <v>436.8967109626374</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L36" t="n">
-        <v>1050.793780719526</v>
+        <v>1006.126752553338</v>
       </c>
       <c r="M36" t="n">
-        <v>1819.161927111988</v>
+        <v>1774.494898945799</v>
       </c>
       <c r="N36" t="n">
-        <v>2623.573505376138</v>
+        <v>1774.494898945799</v>
       </c>
       <c r="O36" t="n">
-        <v>2623.573505376138</v>
+        <v>2023.248313029762</v>
       </c>
       <c r="P36" t="n">
-        <v>2623.573505376138</v>
+        <v>2543.548934765509</v>
       </c>
       <c r="Q36" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R36" t="n">
         <v>2623.573505376138</v>
@@ -7069,37 +7069,37 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>659.4602391108331</v>
+        <v>659.4602391108334</v>
       </c>
       <c r="C37" t="n">
-        <v>559.3441472229672</v>
+        <v>559.3441472229675</v>
       </c>
       <c r="D37" t="n">
-        <v>478.0475988506726</v>
+        <v>478.0475988506729</v>
       </c>
       <c r="E37" t="n">
-        <v>398.9545963083205</v>
+        <v>398.9545963083207</v>
       </c>
       <c r="F37" t="n">
-        <v>320.8847398504512</v>
+        <v>320.8847398504514</v>
       </c>
       <c r="G37" t="n">
-        <v>221.5295092103129</v>
+        <v>221.5295092103131</v>
       </c>
       <c r="H37" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J37" t="n">
-        <v>177.0503551525398</v>
+        <v>177.0503551525402</v>
       </c>
       <c r="K37" t="n">
-        <v>394.6863306254955</v>
+        <v>394.6863306254959</v>
       </c>
       <c r="L37" t="n">
-        <v>709.848946864969</v>
+        <v>709.8489468649694</v>
       </c>
       <c r="M37" t="n">
         <v>1048.866260860496</v>
@@ -7114,7 +7114,7 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q37" t="n">
-        <v>2038.520840384656</v>
+        <v>2038.520840384657</v>
       </c>
       <c r="R37" t="n">
         <v>1996.265827986523</v>
@@ -7123,22 +7123,22 @@
         <v>1865.165908942117</v>
       </c>
       <c r="T37" t="n">
-        <v>1710.200584771664</v>
+        <v>1710.200584771663</v>
       </c>
       <c r="U37" t="n">
-        <v>1489.892037025262</v>
+        <v>1489.892037025263</v>
       </c>
       <c r="V37" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W37" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X37" t="n">
-        <v>924.2611010045208</v>
+        <v>924.261101004521</v>
       </c>
       <c r="Y37" t="n">
-        <v>772.2886129010317</v>
+        <v>772.288612901032</v>
       </c>
     </row>
     <row r="38">
@@ -7148,34 +7148,34 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E38" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155884</v>
       </c>
       <c r="G38" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H38" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823781</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514077</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L38" t="n">
         <v>1590.888347795206</v>
@@ -7187,37 +7187,37 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O38" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T38" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="39">
@@ -7248,31 +7248,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K39" t="n">
-        <v>97.21709146028587</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L39" t="n">
-        <v>97.21709146028587</v>
+        <v>738.0704661731477</v>
       </c>
       <c r="M39" t="n">
-        <v>865.5852378527475</v>
+        <v>1058.405785702849</v>
       </c>
       <c r="N39" t="n">
-        <v>1669.996816116898</v>
+        <v>1691.441695849499</v>
       </c>
       <c r="O39" t="n">
-        <v>2339.460577419557</v>
+        <v>2360.905457152158</v>
       </c>
       <c r="P39" t="n">
-        <v>2623.573505376138</v>
+        <v>2543.548934765509</v>
       </c>
       <c r="Q39" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R39" t="n">
         <v>2623.573505376138</v>
@@ -7306,37 +7306,37 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>659.4602391108328</v>
+        <v>659.4602391108326</v>
       </c>
       <c r="C40" t="n">
-        <v>559.344147222967</v>
+        <v>559.3441472229667</v>
       </c>
       <c r="D40" t="n">
-        <v>478.0475988506723</v>
+        <v>478.0475988506721</v>
       </c>
       <c r="E40" t="n">
-        <v>398.9545963083202</v>
+        <v>398.9545963083203</v>
       </c>
       <c r="F40" t="n">
-        <v>320.884739850451</v>
+        <v>320.8847398504512</v>
       </c>
       <c r="G40" t="n">
-        <v>221.5295092103127</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H40" t="n">
-        <v>139.9315917982973</v>
+        <v>139.9315917982969</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J40" t="n">
-        <v>177.0503551525399</v>
+        <v>177.0503551525403</v>
       </c>
       <c r="K40" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254959</v>
       </c>
       <c r="L40" t="n">
-        <v>709.8489468649691</v>
+        <v>709.8489468649693</v>
       </c>
       <c r="M40" t="n">
         <v>1048.866260860496</v>
@@ -7372,10 +7372,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X40" t="n">
-        <v>924.2611010045205</v>
+        <v>924.2611010045202</v>
       </c>
       <c r="Y40" t="n">
-        <v>772.2886129010315</v>
+        <v>772.2886129010312</v>
       </c>
     </row>
     <row r="41">
@@ -7397,10 +7397,10 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H41" t="n">
         <v>179.8222783822462</v>
@@ -7409,10 +7409,10 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L41" t="n">
         <v>1590.888347795206</v>
@@ -7436,10 +7436,10 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S41" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T41" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U41" t="n">
         <v>4262.3578574653</v>
@@ -7491,25 +7491,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="K42" t="n">
-        <v>436.8967109626374</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L42" t="n">
-        <v>1050.793780719526</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="M42" t="n">
-        <v>1819.161927111988</v>
+        <v>1276.47550669726</v>
       </c>
       <c r="N42" t="n">
-        <v>2623.573505376138</v>
+        <v>2080.887084961411</v>
       </c>
       <c r="O42" t="n">
-        <v>2623.573505376138</v>
+        <v>2329.640499045373</v>
       </c>
       <c r="P42" t="n">
-        <v>2623.573505376138</v>
+        <v>2512.283976658724</v>
       </c>
       <c r="Q42" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R42" t="n">
         <v>2623.573505376138</v>
@@ -7543,19 +7543,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>659.4602391108334</v>
+        <v>659.4602391108333</v>
       </c>
       <c r="C43" t="n">
-        <v>559.3441472229675</v>
+        <v>559.3441472229674</v>
       </c>
       <c r="D43" t="n">
-        <v>478.0475988506729</v>
+        <v>478.0475988506727</v>
       </c>
       <c r="E43" t="n">
-        <v>398.9545963083204</v>
+        <v>398.9545963083206</v>
       </c>
       <c r="F43" t="n">
-        <v>320.8847398504512</v>
+        <v>320.8847398504513</v>
       </c>
       <c r="G43" t="n">
         <v>221.5295092103129</v>
@@ -7564,16 +7564,16 @@
         <v>139.9315917982973</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J43" t="n">
-        <v>177.0503551525399</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K43" t="n">
         <v>394.6863306254957</v>
       </c>
       <c r="L43" t="n">
-        <v>709.8489468649692</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M43" t="n">
         <v>1048.866260860496</v>
@@ -7591,7 +7591,7 @@
         <v>2038.520840384656</v>
       </c>
       <c r="R43" t="n">
-        <v>1996.265827986523</v>
+        <v>1996.265827986522</v>
       </c>
       <c r="S43" t="n">
         <v>1865.165908942116</v>
@@ -7609,10 +7609,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X43" t="n">
-        <v>924.261101004521</v>
+        <v>924.2611010045209</v>
       </c>
       <c r="Y43" t="n">
-        <v>772.288612901032</v>
+        <v>772.2886129010318</v>
       </c>
     </row>
     <row r="44">
@@ -7625,34 +7625,34 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155879</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805462</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M44" t="n">
         <v>2388.164701515097</v>
@@ -7673,22 +7673,22 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S44" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T44" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y44" t="n">
         <v>2814.921224614724</v>
@@ -7725,28 +7725,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
-        <v>97.21709146028584</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K45" t="n">
-        <v>436.8967109626374</v>
+        <v>388.8958536704856</v>
       </c>
       <c r="L45" t="n">
-        <v>1050.793780719526</v>
+        <v>578.5528938194192</v>
       </c>
       <c r="M45" t="n">
-        <v>1819.161927111988</v>
+        <v>1346.921040211881</v>
       </c>
       <c r="N45" t="n">
-        <v>2623.573505376138</v>
+        <v>1691.441695849499</v>
       </c>
       <c r="O45" t="n">
-        <v>2623.573505376138</v>
+        <v>2360.905457152158</v>
       </c>
       <c r="P45" t="n">
-        <v>2623.573505376138</v>
+        <v>2543.548934765509</v>
       </c>
       <c r="Q45" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R45" t="n">
         <v>2623.573505376138</v>
@@ -7780,37 +7780,37 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>659.4602391108327</v>
+        <v>659.4602391108332</v>
       </c>
       <c r="C46" t="n">
-        <v>559.3441472229669</v>
+        <v>559.3441472229673</v>
       </c>
       <c r="D46" t="n">
-        <v>478.0475988506722</v>
+        <v>478.0475988506727</v>
       </c>
       <c r="E46" t="n">
-        <v>398.9545963083202</v>
+        <v>398.9545963083207</v>
       </c>
       <c r="F46" t="n">
-        <v>320.8847398504508</v>
+        <v>320.8847398504514</v>
       </c>
       <c r="G46" t="n">
-        <v>221.529509210313</v>
+        <v>221.5295092103128</v>
       </c>
       <c r="H46" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J46" t="n">
         <v>177.05035515254</v>
       </c>
       <c r="K46" t="n">
-        <v>394.6863306254956</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L46" t="n">
-        <v>709.8489468649691</v>
+        <v>709.8489468649692</v>
       </c>
       <c r="M46" t="n">
         <v>1048.866260860496</v>
@@ -7837,19 +7837,19 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U46" t="n">
-        <v>1489.892037025262</v>
+        <v>1489.892037025263</v>
       </c>
       <c r="V46" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W46" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X46" t="n">
-        <v>924.2611010045205</v>
+        <v>924.2611010045209</v>
       </c>
       <c r="Y46" t="n">
-        <v>772.2886129010313</v>
+        <v>772.2886129010318</v>
       </c>
     </row>
   </sheetData>
@@ -8778,13 +8778,13 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N12" t="n">
-        <v>479.3423743435536</v>
+        <v>436.1942749365423</v>
       </c>
       <c r="O12" t="n">
-        <v>142.5962444444444</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
         <v>139.9817740860215</v>
@@ -9006,7 +9006,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
         <v>370.8403453034592</v>
@@ -9021,10 +9021,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9243,13 +9243,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>264.4652370125786</v>
+        <v>148.85319130543</v>
       </c>
       <c r="L18" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
-        <v>142.1340339220183</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N18" t="n">
         <v>479.3423743435536</v>
@@ -9261,7 +9261,7 @@
         <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9483,13 +9483,13 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N21" t="n">
-        <v>131.3417120833333</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O21" t="n">
         <v>393.8623192767295</v>
@@ -9717,13 +9717,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>370.8623401849284</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N24" t="n">
         <v>479.3423743435536</v>
@@ -9954,7 +9954,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
         <v>370.8403453034592</v>
@@ -9969,10 +9969,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P27" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10133,7 +10133,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10191,7 +10191,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
         <v>370.8403453034592</v>
@@ -10437,13 +10437,13 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N33" t="n">
-        <v>479.3423743435536</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O33" t="n">
-        <v>142.5962444444444</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P33" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
         <v>139.9817740860215</v>
@@ -10674,16 +10674,16 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N36" t="n">
-        <v>479.3423743435536</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O36" t="n">
-        <v>142.5962444444444</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10902,10 +10902,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
         <v>465.7050637499999</v>
@@ -10920,7 +10920,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11142,7 +11142,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M42" t="n">
         <v>465.7050637499999</v>
@@ -11151,13 +11151,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O42" t="n">
-        <v>142.5962444444444</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P42" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11294,7 +11294,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>169.0966151720736</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
         <v>324.1454125711647</v>
@@ -11379,7 +11379,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
-        <v>370.8403453034592</v>
+        <v>330.1271476070798</v>
       </c>
       <c r="M45" t="n">
         <v>465.7050637499999</v>
@@ -11388,13 +11388,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O45" t="n">
-        <v>142.5962444444444</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P45" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -23416,10 +23416,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>39.56892807994062</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -23434,7 +23434,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23464,25 +23464,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>177.873690030341</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23656,22 +23656,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23701,25 +23701,25 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>172.0780686725398</v>
       </c>
       <c r="X16" t="n">
-        <v>104.8566210678465</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23887,19 +23887,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>168.7913288562259</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>156.2061697729164</v>
       </c>
       <c r="D19" t="n">
-        <v>137.5748216925009</v>
+        <v>137.574821692501</v>
       </c>
       <c r="E19" t="n">
-        <v>135.3933113208577</v>
+        <v>135.3933113208578</v>
       </c>
       <c r="F19" t="n">
-        <v>63.9627830116989</v>
+        <v>134.3803966972199</v>
       </c>
       <c r="G19" t="n">
         <v>155.4529171376662</v>
@@ -23908,7 +23908,7 @@
         <v>137.8731770418247</v>
       </c>
       <c r="I19" t="n">
-        <v>99.37859413856057</v>
+        <v>99.3785941385606</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,7 +23935,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>98.92370107808136</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23947,16 +23947,16 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>241.0969919981166</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>163.7444262770535</v>
       </c>
       <c r="Y19" t="n">
-        <v>207.5440020263834</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24124,19 +24124,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>168.7913288562259</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>156.2061697729164</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>137.5748216925009</v>
       </c>
       <c r="E22" t="n">
-        <v>135.3933113208577</v>
+        <v>57.95683898025767</v>
       </c>
       <c r="F22" t="n">
-        <v>63.96278301169876</v>
+        <v>134.3803966972198</v>
       </c>
       <c r="G22" t="n">
         <v>155.4529171376662</v>
@@ -24172,19 +24172,19 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>98.92370107808136</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>186.8801586578918</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>210.5069097326778</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>241.0969919981166</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24193,7 +24193,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>207.5440020263834</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24364,16 +24364,16 @@
         <v>168.7913288562259</v>
       </c>
       <c r="C25" t="n">
-        <v>156.2061697729164</v>
+        <v>104.6551670883579</v>
       </c>
       <c r="D25" t="n">
-        <v>137.574821692501</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>135.3933113208578</v>
+        <v>135.3933113208577</v>
       </c>
       <c r="F25" t="n">
-        <v>63.96278301169917</v>
+        <v>134.3803966972198</v>
       </c>
       <c r="G25" t="n">
         <v>155.4529171376662</v>
@@ -24382,7 +24382,7 @@
         <v>137.8731770418247</v>
       </c>
       <c r="I25" t="n">
-        <v>99.3785941385606</v>
+        <v>99.37859413856057</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,13 +24409,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>98.92370107808139</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>210.5069097326778</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24427,10 +24427,10 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>214.6690040633257</v>
       </c>
       <c r="Y25" t="n">
-        <v>207.5440020263834</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24598,22 +24598,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>168.7913288562258</v>
+        <v>168.7913288562259</v>
       </c>
       <c r="C28" t="n">
         <v>156.2061697729164</v>
       </c>
       <c r="D28" t="n">
-        <v>137.5748216925009</v>
+        <v>111.8770833786756</v>
       </c>
       <c r="E28" t="n">
-        <v>135.3933113208577</v>
+        <v>135.3933113208578</v>
       </c>
       <c r="F28" t="n">
-        <v>134.3803966972198</v>
+        <v>134.3803966972199</v>
       </c>
       <c r="G28" t="n">
-        <v>155.4529171376661</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>137.8731770418247</v>
@@ -24646,7 +24646,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>98.92370107808134</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24655,13 +24655,13 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>236.5049824794226</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>241.0969919981166</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>275.4823470108796</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24835,28 +24835,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>168.7913288562259</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>156.2061697729164</v>
+        <v>156.2061697729165</v>
       </c>
       <c r="D31" t="n">
-        <v>137.5748216925009</v>
+        <v>137.574821692501</v>
       </c>
       <c r="E31" t="n">
-        <v>135.3933113208577</v>
+        <v>135.3933113208578</v>
       </c>
       <c r="F31" t="n">
-        <v>63.96278301169884</v>
+        <v>134.3803966972199</v>
       </c>
       <c r="G31" t="n">
         <v>155.4529171376662</v>
       </c>
       <c r="H31" t="n">
-        <v>137.8731770418247</v>
+        <v>137.8731770418248</v>
       </c>
       <c r="I31" t="n">
-        <v>99.37859413856056</v>
+        <v>99.37859413856062</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,7 +24883,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>98.92370107808136</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24895,16 +24895,16 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>129.359071264291</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>275.4823470108796</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>207.5440020263834</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>610990.8966517932</v>
+        <v>610990.8966517929</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>610990.8966517932</v>
+        <v>610990.8966517929</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>610990.896651793</v>
+        <v>610990.8966517929</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>610990.8966517932</v>
+        <v>610990.8966517929</v>
       </c>
     </row>
     <row r="12">
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>800515.725617676</v>
+        <v>800515.7256176762</v>
       </c>
       <c r="C2" t="n">
-        <v>800515.7256176763</v>
+        <v>800515.7256176764</v>
       </c>
       <c r="D2" t="n">
-        <v>800515.7256176765</v>
+        <v>800515.7256176764</v>
       </c>
       <c r="E2" t="n">
-        <v>762506.6664885324</v>
+        <v>762506.6664885327</v>
       </c>
       <c r="F2" t="n">
-        <v>762506.6664885324</v>
+        <v>762506.6664885321</v>
       </c>
       <c r="G2" t="n">
-        <v>768665.9667554817</v>
+        <v>768665.9667554816</v>
       </c>
       <c r="H2" t="n">
         <v>768665.9667554816</v>
       </c>
       <c r="I2" t="n">
-        <v>768665.9667554814</v>
+        <v>768665.9667554817</v>
       </c>
       <c r="J2" t="n">
-        <v>768665.9667554818</v>
+        <v>768665.9667554816</v>
       </c>
       <c r="K2" t="n">
-        <v>768665.9667554814</v>
+        <v>768665.9667554816</v>
       </c>
       <c r="L2" t="n">
         <v>800515.7256176771</v>
       </c>
       <c r="M2" t="n">
+        <v>800515.7256176771</v>
+      </c>
+      <c r="N2" t="n">
         <v>800515.725617677</v>
       </c>
-      <c r="N2" t="n">
+      <c r="O2" t="n">
         <v>800515.7256176769</v>
       </c>
-      <c r="O2" t="n">
-        <v>800515.725617677</v>
-      </c>
       <c r="P2" t="n">
-        <v>800515.7256176771</v>
+        <v>800515.7256176767</v>
       </c>
     </row>
     <row r="3">
@@ -26372,22 +26372,22 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768963</v>
+        <v>525160.0364768957</v>
       </c>
       <c r="F3" t="n">
-        <v>2.574418839027077e-11</v>
+        <v>1.797263848857256e-10</v>
       </c>
       <c r="G3" t="n">
-        <v>8832.521060568981</v>
+        <v>8832.521060569094</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-11</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925929</v>
+        <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,7 +26396,7 @@
         <v>54505.51210371254</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338373</v>
+        <v>134801.0152338371</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>139059.1391806191</v>
+        <v>139059.139180619</v>
       </c>
       <c r="C4" t="n">
         <v>139059.1391806191</v>
       </c>
       <c r="D4" t="n">
-        <v>139059.1391806191</v>
+        <v>139059.139180619</v>
       </c>
       <c r="E4" t="n">
-        <v>787.7936905757878</v>
+        <v>787.7936905758941</v>
       </c>
       <c r="F4" t="n">
-        <v>787.7936905758302</v>
+        <v>787.7936905758824</v>
       </c>
       <c r="G4" t="n">
-        <v>4420.718193415156</v>
+        <v>4420.718193415185</v>
       </c>
       <c r="H4" t="n">
-        <v>4420.718193415145</v>
+        <v>4420.718193415194</v>
       </c>
       <c r="I4" t="n">
-        <v>4420.718193415145</v>
+        <v>4420.718193415181</v>
       </c>
       <c r="J4" t="n">
-        <v>4420.718193415201</v>
+        <v>4420.718193415171</v>
       </c>
       <c r="K4" t="n">
-        <v>4420.718193415178</v>
+        <v>4420.718193415133</v>
       </c>
       <c r="L4" t="n">
+        <v>23206.58093189633</v>
+      </c>
+      <c r="M4" t="n">
+        <v>23206.58093189632</v>
+      </c>
+      <c r="N4" t="n">
         <v>23206.58093189634</v>
       </c>
-      <c r="M4" t="n">
+      <c r="O4" t="n">
         <v>23206.58093189634</v>
       </c>
-      <c r="N4" t="n">
-        <v>23206.58093189631</v>
-      </c>
-      <c r="O4" t="n">
+      <c r="P4" t="n">
         <v>23206.58093189635</v>
-      </c>
-      <c r="P4" t="n">
-        <v>23206.58093189634</v>
       </c>
     </row>
     <row r="5">
@@ -26473,16 +26473,16 @@
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340948</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871667</v>
+        <v>91987.32594871661</v>
       </c>
       <c r="F5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="G5" t="n">
-        <v>92915.50246501787</v>
+        <v>92915.50246501785</v>
       </c>
       <c r="H5" t="n">
         <v>92915.50246501787</v>
@@ -26497,13 +26497,13 @@
         <v>92915.50246501787</v>
       </c>
       <c r="L5" t="n">
+        <v>97715.1058200254</v>
+      </c>
+      <c r="M5" t="n">
+        <v>97715.1058200254</v>
+      </c>
+      <c r="N5" t="n">
         <v>97715.10582002539</v>
-      </c>
-      <c r="M5" t="n">
-        <v>97715.10582002539</v>
-      </c>
-      <c r="N5" t="n">
-        <v>97715.1058200254</v>
       </c>
       <c r="O5" t="n">
         <v>97715.10582002539</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-11370.37084089691</v>
+        <v>-11370.37084089677</v>
       </c>
       <c r="C6" t="n">
-        <v>578597.5083736478</v>
+        <v>578597.5083736479</v>
       </c>
       <c r="D6" t="n">
-        <v>578597.508373648</v>
+        <v>578597.5083736479</v>
       </c>
       <c r="E6" t="n">
-        <v>144571.5103723437</v>
+        <v>144474.0512463723</v>
       </c>
       <c r="F6" t="n">
-        <v>669731.54684924</v>
+        <v>669634.0877232673</v>
       </c>
       <c r="G6" t="n">
-        <v>662497.2250364796</v>
+        <v>662415.5589881148</v>
       </c>
       <c r="H6" t="n">
-        <v>671329.7460970485</v>
+        <v>671248.0800486839</v>
       </c>
       <c r="I6" t="n">
-        <v>671329.7460970485</v>
+        <v>671248.080048684</v>
       </c>
       <c r="J6" t="n">
-        <v>494906.5269044559</v>
+        <v>494824.8608560909</v>
       </c>
       <c r="K6" t="n">
-        <v>671329.7460970484</v>
+        <v>671248.080048684</v>
       </c>
       <c r="L6" t="n">
         <v>625088.5267620428</v>
       </c>
       <c r="M6" t="n">
-        <v>544793.0236319179</v>
+        <v>544793.0236319182</v>
       </c>
       <c r="N6" t="n">
+        <v>679594.0388657552</v>
+      </c>
+      <c r="O6" t="n">
         <v>679594.0388657551</v>
       </c>
-      <c r="O6" t="n">
-        <v>679594.0388657552</v>
-      </c>
       <c r="P6" t="n">
-        <v>679594.0388657553</v>
+        <v>679594.038865755</v>
       </c>
     </row>
   </sheetData>
@@ -26692,40 +26692,40 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="G2" t="n">
-        <v>11.04065132571142</v>
+        <v>11.0406513257114</v>
       </c>
       <c r="H2" t="n">
-        <v>11.04065132571142</v>
+        <v>11.04065132571143</v>
       </c>
       <c r="I2" t="n">
-        <v>11.04065132571139</v>
+        <v>11.04065132571143</v>
       </c>
       <c r="J2" t="n">
-        <v>11.04065132571145</v>
+        <v>11.0406513257114</v>
       </c>
       <c r="K2" t="n">
-        <v>11.04065132571142</v>
+        <v>11.04065132571137</v>
       </c>
       <c r="L2" t="n">
+        <v>68.13189012964068</v>
+      </c>
+      <c r="M2" t="n">
+        <v>68.13189012964067</v>
+      </c>
+      <c r="N2" t="n">
         <v>68.13189012964064</v>
       </c>
-      <c r="M2" t="n">
-        <v>68.13189012964064</v>
-      </c>
-      <c r="N2" t="n">
-        <v>68.13189012964065</v>
-      </c>
       <c r="O2" t="n">
+        <v>68.13189012964062</v>
+      </c>
+      <c r="P2" t="n">
         <v>68.13189012964067</v>
-      </c>
-      <c r="P2" t="n">
-        <v>68.13189012964064</v>
       </c>
     </row>
     <row r="3">
@@ -26738,25 +26738,25 @@
         <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170868</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541005</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="J3" t="n">
         <v>830.3824054541003</v>
@@ -26777,7 +26777,7 @@
         <v>830.3824054541003</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
     </row>
     <row r="4">
@@ -26793,10 +26793,10 @@
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="E4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="F4" t="n">
         <v>1215.213643253573</v>
@@ -26914,16 +26914,16 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="F2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>11.04065132571145</v>
+        <v>11.04065132571137</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-14</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -26935,7 +26935,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26966,10 +26966,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370137</v>
+        <v>452.6387412370132</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990179</v>
+        <v>540.9263704990171</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545554</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990179</v>
+        <v>540.9263704990171</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,16 +27151,16 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="K2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>11.04065132571145</v>
+        <v>11.04065132571137</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-14</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990179</v>
+        <v>540.9263704990171</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,19 +27376,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>123.5101217588455</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -27436,10 +27436,10 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>36.03392876660428</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -27476,7 +27476,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>2.202682480856311e-13</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27509,7 +27509,7 @@
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>5.400124791776761e-13</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
@@ -27534,7 +27534,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -27543,19 +27543,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>82.85718120047564</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
         <v>45.199959188537</v>
@@ -27579,7 +27579,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>146.6651919801579</v>
@@ -27588,10 +27588,10 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>271.4122208267993</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -27603,7 +27603,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27619,22 +27619,22 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>340.2289014693134</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,7 +27664,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -27673,16 +27673,16 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>183.2634239189666</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27777,25 +27777,25 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>96.50703242634958</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27819,7 +27819,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -27828,13 +27828,13 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>52.02592219651751</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -27850,22 +27850,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>303.1189077178008</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>266.2568172696844</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -27898,7 +27898,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481167</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
@@ -27907,13 +27907,13 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -28008,19 +28008,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>120.1051426060687</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>167.3098022590509</v>
@@ -28032,7 +28032,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853699</v>
+        <v>45.19995918853698</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,10 +28053,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491428</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -28065,10 +28065,10 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>17.64056718375417</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -28147,7 +28147,7 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>5.464171643889758e-13</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -28345,7 +28345,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28576,7 +28576,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -28719,76 +28719,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>11.04065132571142</v>
+        <v>11.0406513257114</v>
       </c>
       <c r="C19" t="n">
-        <v>11.04065132571142</v>
+        <v>11.0406513257114</v>
       </c>
       <c r="D19" t="n">
-        <v>11.04065132571142</v>
+        <v>11.0406513257114</v>
       </c>
       <c r="E19" t="n">
-        <v>11.04065132571142</v>
+        <v>11.0406513257114</v>
       </c>
       <c r="F19" t="n">
-        <v>11.04065132571142</v>
+        <v>11.0406513257114</v>
       </c>
       <c r="G19" t="n">
-        <v>11.04065132571142</v>
+        <v>11.0406513257114</v>
       </c>
       <c r="H19" t="n">
-        <v>11.04065132571142</v>
+        <v>11.0406513257114</v>
       </c>
       <c r="I19" t="n">
-        <v>11.04065132571142</v>
+        <v>11.0406513257114</v>
       </c>
       <c r="J19" t="n">
-        <v>11.04065132571142</v>
+        <v>11.0406513257114</v>
       </c>
       <c r="K19" t="n">
-        <v>11.04065132571142</v>
+        <v>11.0406513257114</v>
       </c>
       <c r="L19" t="n">
-        <v>11.04065132571142</v>
+        <v>11.0406513257114</v>
       </c>
       <c r="M19" t="n">
-        <v>11.04065132571142</v>
+        <v>11.0406513257114</v>
       </c>
       <c r="N19" t="n">
-        <v>11.04065132571142</v>
+        <v>11.0406513257114</v>
       </c>
       <c r="O19" t="n">
-        <v>11.04065132571142</v>
+        <v>11.0406513257114</v>
       </c>
       <c r="P19" t="n">
-        <v>11.04065132571142</v>
+        <v>11.0406513257114</v>
       </c>
       <c r="Q19" t="n">
-        <v>11.04065132571142</v>
+        <v>11.0406513257114</v>
       </c>
       <c r="R19" t="n">
-        <v>11.04065132571142</v>
+        <v>11.0406513257114</v>
       </c>
       <c r="S19" t="n">
-        <v>11.04065132571142</v>
+        <v>11.0406513257114</v>
       </c>
       <c r="T19" t="n">
-        <v>11.04065132571142</v>
+        <v>11.0406513257114</v>
       </c>
       <c r="U19" t="n">
-        <v>11.04065132571142</v>
+        <v>11.0406513257114</v>
       </c>
       <c r="V19" t="n">
-        <v>11.04065132571142</v>
+        <v>11.0406513257114</v>
       </c>
       <c r="W19" t="n">
-        <v>11.04065132571142</v>
+        <v>11.0406513257114</v>
       </c>
       <c r="X19" t="n">
-        <v>11.04065132571142</v>
+        <v>11.0406513257114</v>
       </c>
       <c r="Y19" t="n">
-        <v>11.04065132571142</v>
+        <v>11.0406513257114</v>
       </c>
     </row>
     <row r="20">
@@ -28813,7 +28813,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -28956,76 +28956,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>11.04065132571142</v>
+        <v>11.04065132571143</v>
       </c>
       <c r="C22" t="n">
-        <v>11.04065132571142</v>
+        <v>11.04065132571143</v>
       </c>
       <c r="D22" t="n">
-        <v>11.04065132571142</v>
+        <v>11.04065132571143</v>
       </c>
       <c r="E22" t="n">
-        <v>11.04065132571142</v>
+        <v>11.04065132571143</v>
       </c>
       <c r="F22" t="n">
-        <v>11.04065132571142</v>
+        <v>11.04065132571143</v>
       </c>
       <c r="G22" t="n">
-        <v>11.04065132571142</v>
+        <v>11.04065132571143</v>
       </c>
       <c r="H22" t="n">
-        <v>11.04065132571142</v>
+        <v>11.04065132571143</v>
       </c>
       <c r="I22" t="n">
-        <v>11.04065132571142</v>
+        <v>11.04065132571143</v>
       </c>
       <c r="J22" t="n">
-        <v>11.04065132571142</v>
+        <v>11.04065132571143</v>
       </c>
       <c r="K22" t="n">
-        <v>11.04065132571142</v>
+        <v>11.04065132571143</v>
       </c>
       <c r="L22" t="n">
-        <v>11.04065132571142</v>
+        <v>11.04065132571143</v>
       </c>
       <c r="M22" t="n">
-        <v>11.04065132571142</v>
+        <v>11.04065132571143</v>
       </c>
       <c r="N22" t="n">
-        <v>11.04065132571142</v>
+        <v>11.04065132571143</v>
       </c>
       <c r="O22" t="n">
-        <v>11.04065132571142</v>
+        <v>11.04065132571143</v>
       </c>
       <c r="P22" t="n">
-        <v>11.04065132571142</v>
+        <v>11.04065132571143</v>
       </c>
       <c r="Q22" t="n">
-        <v>11.04065132571142</v>
+        <v>11.04065132571143</v>
       </c>
       <c r="R22" t="n">
-        <v>11.04065132571142</v>
+        <v>11.04065132571143</v>
       </c>
       <c r="S22" t="n">
-        <v>11.04065132571142</v>
+        <v>11.04065132571143</v>
       </c>
       <c r="T22" t="n">
-        <v>11.04065132571142</v>
+        <v>11.04065132571143</v>
       </c>
       <c r="U22" t="n">
-        <v>11.04065132571142</v>
+        <v>11.04065132571143</v>
       </c>
       <c r="V22" t="n">
-        <v>11.04065132571142</v>
+        <v>11.04065132571143</v>
       </c>
       <c r="W22" t="n">
-        <v>11.04065132571142</v>
+        <v>11.04065132571143</v>
       </c>
       <c r="X22" t="n">
-        <v>11.04065132571142</v>
+        <v>11.04065132571143</v>
       </c>
       <c r="Y22" t="n">
-        <v>11.04065132571142</v>
+        <v>11.04065132571143</v>
       </c>
     </row>
     <row r="23">
@@ -29193,76 +29193,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>11.04065132571139</v>
+        <v>11.04065132571143</v>
       </c>
       <c r="C25" t="n">
-        <v>11.04065132571139</v>
+        <v>11.04065132571143</v>
       </c>
       <c r="D25" t="n">
-        <v>11.04065132571139</v>
+        <v>11.04065132571143</v>
       </c>
       <c r="E25" t="n">
-        <v>11.04065132571139</v>
+        <v>11.04065132571143</v>
       </c>
       <c r="F25" t="n">
-        <v>11.04065132571139</v>
+        <v>11.04065132571143</v>
       </c>
       <c r="G25" t="n">
-        <v>11.04065132571139</v>
+        <v>11.04065132571143</v>
       </c>
       <c r="H25" t="n">
-        <v>11.04065132571139</v>
+        <v>11.04065132571143</v>
       </c>
       <c r="I25" t="n">
-        <v>11.04065132571139</v>
+        <v>11.04065132571143</v>
       </c>
       <c r="J25" t="n">
-        <v>11.04065132571139</v>
+        <v>11.04065132571143</v>
       </c>
       <c r="K25" t="n">
-        <v>11.04065132571139</v>
+        <v>11.04065132571143</v>
       </c>
       <c r="L25" t="n">
-        <v>11.04065132571139</v>
+        <v>11.04065132571143</v>
       </c>
       <c r="M25" t="n">
-        <v>11.04065132571139</v>
+        <v>11.04065132571143</v>
       </c>
       <c r="N25" t="n">
-        <v>11.04065132571139</v>
+        <v>11.04065132571143</v>
       </c>
       <c r="O25" t="n">
-        <v>11.04065132571139</v>
+        <v>11.04065132571143</v>
       </c>
       <c r="P25" t="n">
-        <v>11.04065132571139</v>
+        <v>11.04065132571143</v>
       </c>
       <c r="Q25" t="n">
-        <v>11.04065132571139</v>
+        <v>11.04065132571143</v>
       </c>
       <c r="R25" t="n">
-        <v>11.04065132571139</v>
+        <v>11.04065132571143</v>
       </c>
       <c r="S25" t="n">
-        <v>11.04065132571139</v>
+        <v>11.04065132571143</v>
       </c>
       <c r="T25" t="n">
-        <v>11.04065132571139</v>
+        <v>11.04065132571143</v>
       </c>
       <c r="U25" t="n">
-        <v>11.04065132571139</v>
+        <v>11.04065132571143</v>
       </c>
       <c r="V25" t="n">
-        <v>11.04065132571139</v>
+        <v>11.04065132571143</v>
       </c>
       <c r="W25" t="n">
-        <v>11.04065132571139</v>
+        <v>11.04065132571143</v>
       </c>
       <c r="X25" t="n">
-        <v>11.04065132571139</v>
+        <v>11.04065132571143</v>
       </c>
       <c r="Y25" t="n">
-        <v>11.04065132571139</v>
+        <v>11.04065132571143</v>
       </c>
     </row>
     <row r="26">
@@ -29284,7 +29284,7 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>11.04065132571145</v>
+        <v>11.0406513257114</v>
       </c>
       <c r="C28" t="n">
-        <v>11.04065132571145</v>
+        <v>11.0406513257114</v>
       </c>
       <c r="D28" t="n">
-        <v>11.04065132571145</v>
+        <v>11.0406513257114</v>
       </c>
       <c r="E28" t="n">
-        <v>11.04065132571145</v>
+        <v>11.0406513257114</v>
       </c>
       <c r="F28" t="n">
-        <v>11.04065132571145</v>
+        <v>11.0406513257114</v>
       </c>
       <c r="G28" t="n">
-        <v>11.04065132571145</v>
+        <v>11.0406513257114</v>
       </c>
       <c r="H28" t="n">
-        <v>11.04065132571145</v>
+        <v>11.0406513257114</v>
       </c>
       <c r="I28" t="n">
-        <v>11.04065132571145</v>
+        <v>11.0406513257114</v>
       </c>
       <c r="J28" t="n">
-        <v>11.04065132571145</v>
+        <v>11.0406513257114</v>
       </c>
       <c r="K28" t="n">
-        <v>11.04065132571145</v>
+        <v>11.0406513257114</v>
       </c>
       <c r="L28" t="n">
-        <v>11.04065132571145</v>
+        <v>11.0406513257114</v>
       </c>
       <c r="M28" t="n">
-        <v>11.04065132571145</v>
+        <v>11.0406513257114</v>
       </c>
       <c r="N28" t="n">
-        <v>11.04065132571145</v>
+        <v>11.0406513257114</v>
       </c>
       <c r="O28" t="n">
-        <v>11.04065132571145</v>
+        <v>11.0406513257114</v>
       </c>
       <c r="P28" t="n">
-        <v>11.04065132571145</v>
+        <v>11.0406513257114</v>
       </c>
       <c r="Q28" t="n">
-        <v>11.04065132571145</v>
+        <v>11.0406513257114</v>
       </c>
       <c r="R28" t="n">
-        <v>11.04065132571145</v>
+        <v>11.0406513257114</v>
       </c>
       <c r="S28" t="n">
-        <v>11.04065132571145</v>
+        <v>11.0406513257114</v>
       </c>
       <c r="T28" t="n">
-        <v>11.04065132571145</v>
+        <v>11.0406513257114</v>
       </c>
       <c r="U28" t="n">
-        <v>11.04065132571145</v>
+        <v>11.0406513257114</v>
       </c>
       <c r="V28" t="n">
-        <v>11.04065132571145</v>
+        <v>11.0406513257114</v>
       </c>
       <c r="W28" t="n">
-        <v>11.04065132571145</v>
+        <v>11.0406513257114</v>
       </c>
       <c r="X28" t="n">
-        <v>11.04065132571145</v>
+        <v>11.0406513257114</v>
       </c>
       <c r="Y28" t="n">
-        <v>11.04065132571145</v>
+        <v>11.0406513257114</v>
       </c>
     </row>
     <row r="29">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>11.04065132571142</v>
+        <v>11.04065132571137</v>
       </c>
       <c r="C31" t="n">
-        <v>11.04065132571142</v>
+        <v>11.04065132571137</v>
       </c>
       <c r="D31" t="n">
-        <v>11.04065132571142</v>
+        <v>11.04065132571137</v>
       </c>
       <c r="E31" t="n">
-        <v>11.04065132571142</v>
+        <v>11.04065132571137</v>
       </c>
       <c r="F31" t="n">
-        <v>11.04065132571142</v>
+        <v>11.04065132571137</v>
       </c>
       <c r="G31" t="n">
-        <v>11.04065132571142</v>
+        <v>11.04065132571137</v>
       </c>
       <c r="H31" t="n">
-        <v>11.04065132571142</v>
+        <v>11.04065132571137</v>
       </c>
       <c r="I31" t="n">
-        <v>11.04065132571142</v>
+        <v>11.04065132571137</v>
       </c>
       <c r="J31" t="n">
-        <v>11.04065132571142</v>
+        <v>11.04065132571137</v>
       </c>
       <c r="K31" t="n">
-        <v>11.04065132571142</v>
+        <v>11.04065132571137</v>
       </c>
       <c r="L31" t="n">
-        <v>11.04065132571142</v>
+        <v>11.04065132571137</v>
       </c>
       <c r="M31" t="n">
-        <v>11.04065132571142</v>
+        <v>11.04065132571137</v>
       </c>
       <c r="N31" t="n">
-        <v>11.04065132571142</v>
+        <v>11.04065132571137</v>
       </c>
       <c r="O31" t="n">
-        <v>11.04065132571142</v>
+        <v>11.04065132571137</v>
       </c>
       <c r="P31" t="n">
-        <v>11.04065132571142</v>
+        <v>11.04065132571137</v>
       </c>
       <c r="Q31" t="n">
-        <v>11.04065132571142</v>
+        <v>11.04065132571137</v>
       </c>
       <c r="R31" t="n">
-        <v>11.04065132571142</v>
+        <v>11.04065132571137</v>
       </c>
       <c r="S31" t="n">
-        <v>11.04065132571142</v>
+        <v>11.04065132571137</v>
       </c>
       <c r="T31" t="n">
-        <v>11.04065132571142</v>
+        <v>11.04065132571137</v>
       </c>
       <c r="U31" t="n">
-        <v>11.04065132571142</v>
+        <v>11.04065132571137</v>
       </c>
       <c r="V31" t="n">
-        <v>11.04065132571142</v>
+        <v>11.04065132571137</v>
       </c>
       <c r="W31" t="n">
-        <v>11.04065132571142</v>
+        <v>11.04065132571137</v>
       </c>
       <c r="X31" t="n">
-        <v>11.04065132571142</v>
+        <v>11.04065132571137</v>
       </c>
       <c r="Y31" t="n">
-        <v>11.04065132571142</v>
+        <v>11.04065132571137</v>
       </c>
     </row>
     <row r="32">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="C34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="D34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="E34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="F34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="G34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="H34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="I34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="J34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="K34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="L34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="M34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="N34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="O34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="P34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="Q34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="R34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="S34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="T34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="U34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="V34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="W34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="X34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="Y34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
     </row>
     <row r="35">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Q37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="R37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="S37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="38">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="C40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="D40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="E40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="F40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="G40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="H40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="I40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="J40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="K40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="L40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="M40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="N40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="O40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="P40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Q40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="R40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="S40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="T40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="U40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="V40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="W40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="X40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Y40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
     </row>
     <row r="41">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="C43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="D43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="E43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="F43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="G43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="H43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="I43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="J43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="K43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="L43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="M43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="N43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="O43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="P43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="Q43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="R43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="S43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="T43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="U43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="V43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="W43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="X43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="Y43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Q46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="R46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="S46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
   </sheetData>
@@ -31127,7 +31127,7 @@
         <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396476</v>
+        <v>61.04368814949358</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31142,13 +31142,13 @@
         <v>211.31907117367</v>
       </c>
       <c r="O3" t="n">
-        <v>73.87984549392695</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
         <v>155.1528646479577</v>
       </c>
       <c r="Q3" t="n">
-        <v>103.7155811639065</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>50.44659727034982</v>
@@ -31282,19 +31282,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L5" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31309,13 +31309,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,19 +31355,19 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I6" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K6" t="n">
-        <v>131.2017781649102</v>
+        <v>11.76595806653259</v>
       </c>
       <c r="L6" t="n">
         <v>176.4169820478007</v>
@@ -31382,22 +31382,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>139.4326257134861</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,16 +31434,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31458,16 +31458,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31519,7 +31519,7 @@
         <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554469</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
@@ -31528,34 +31528,34 @@
         <v>193.1674799081578</v>
       </c>
       <c r="L8" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630671</v>
       </c>
       <c r="M8" t="n">
         <v>266.6471645405368</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338304</v>
+        <v>270.9617944338305</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119867</v>
       </c>
       <c r="P8" t="n">
         <v>218.3719038954667</v>
       </c>
       <c r="Q8" t="n">
-        <v>163.9882055044137</v>
+        <v>163.9882055044138</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633801</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727384</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473556</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1214853995472036</v>
+        <v>0.1214853995472037</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,40 +31592,40 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.8125052400141113</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188917</v>
       </c>
       <c r="I9" t="n">
         <v>27.9744128689069</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396477</v>
+        <v>76.7639270839648</v>
       </c>
       <c r="K9" t="n">
-        <v>11.76595806653282</v>
+        <v>131.2017781649103</v>
       </c>
       <c r="L9" t="n">
-        <v>176.4169820478007</v>
+        <v>176.4169820478008</v>
       </c>
       <c r="M9" t="n">
-        <v>205.8702969983122</v>
+        <v>86.43447689993462</v>
       </c>
       <c r="N9" t="n">
-        <v>211.31907117367</v>
+        <v>211.3190711736701</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923047</v>
+        <v>193.3156655923048</v>
       </c>
       <c r="P9" t="n">
         <v>155.1528646479578</v>
       </c>
       <c r="Q9" t="n">
-        <v>103.7155811639065</v>
+        <v>103.7155811639066</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034984</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
@@ -31634,7 +31634,7 @@
         <v>3.274966296372666</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619155</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,19 +31671,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078614</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644445</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813578</v>
+        <v>48.1592209281358</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302242</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31695,25 +31695,25 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175848</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383803</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678011</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701165</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197225</v>
       </c>
       <c r="U10" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.03715511451315612</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444943</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K11" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L11" t="n">
-        <v>526.7962671304441</v>
+        <v>526.7962671304438</v>
       </c>
       <c r="M11" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565517</v>
       </c>
       <c r="N11" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927184</v>
       </c>
       <c r="O11" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540884</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946991</v>
       </c>
       <c r="Q11" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647495</v>
       </c>
       <c r="R11" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446477</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104647</v>
       </c>
       <c r="T11" t="n">
-        <v>14.61306122562944</v>
+        <v>14.61306122562943</v>
       </c>
       <c r="U11" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354892</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,28 +31829,28 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H12" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I12" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127062</v>
       </c>
       <c r="J12" t="n">
         <v>0.7465913262578567</v>
       </c>
       <c r="K12" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622981</v>
       </c>
       <c r="L12" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358983</v>
       </c>
       <c r="M12" t="n">
-        <v>380.6284621420183</v>
+        <v>452.5584109724844</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813463</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
@@ -31865,10 +31865,10 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677463</v>
       </c>
       <c r="T12" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361487</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31914,43 +31914,43 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I13" t="n">
-        <v>45.03122946298631</v>
+        <v>45.03122946298628</v>
       </c>
       <c r="J13" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K13" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557933</v>
       </c>
       <c r="L13" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196123</v>
       </c>
       <c r="M13" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171318</v>
       </c>
       <c r="N13" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O13" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P13" t="n">
-        <v>181.1050413469073</v>
+        <v>181.1050413469072</v>
       </c>
       <c r="Q13" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337667</v>
       </c>
       <c r="S13" t="n">
-        <v>26.09578805336901</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892243</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351812</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K14" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L14" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N14" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O14" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946994</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q14" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R14" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U14" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,31 +32066,31 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H15" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I15" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
         <v>0.7465913262578567</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>152.4580040397288</v>
       </c>
       <c r="L15" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724848</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O15" t="n">
-        <v>91.84465193776617</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -32099,13 +32099,13 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T15" t="n">
-        <v>7.199258779361492</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32145,49 +32145,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H16" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I16" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J16" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K16" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L16" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M16" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O16" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P16" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q16" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S16" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351817</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,16 +32224,16 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K17" t="n">
         <v>424.6341946041488</v>
@@ -32242,7 +32242,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N17" t="n">
         <v>595.6470695927186</v>
@@ -32251,7 +32251,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q17" t="n">
         <v>360.4902833647496</v>
@@ -32260,7 +32260,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
@@ -32303,7 +32303,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H18" t="n">
         <v>17.25001940386726</v>
@@ -32312,22 +32312,22 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
-        <v>168.7478056215734</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K18" t="n">
-        <v>288.4168775622982</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
         <v>387.8120847358985</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O18" t="n">
-        <v>284.9322028423996</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -32336,13 +32336,13 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T18" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32403,7 +32403,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O19" t="n">
         <v>211.6522236065632</v>
@@ -32415,16 +32415,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S19" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,16 +32461,16 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K20" t="n">
         <v>424.6341946041488</v>
@@ -32479,7 +32479,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N20" t="n">
         <v>595.6470695927186</v>
@@ -32488,16 +32488,16 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q20" t="n">
         <v>360.4902833647496</v>
       </c>
       <c r="R20" t="n">
-        <v>209.6945076446483</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32540,7 +32540,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H21" t="n">
         <v>17.25001940386726</v>
@@ -32558,28 +32558,28 @@
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>313.390934532846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>35.83627885109456</v>
       </c>
       <c r="O21" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>227.9948068710956</v>
       </c>
       <c r="R21" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T21" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32640,7 +32640,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O22" t="n">
         <v>211.6522236065632</v>
@@ -32652,16 +32652,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,16 +32698,16 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K23" t="n">
         <v>424.6341946041488</v>
@@ -32716,7 +32716,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N23" t="n">
         <v>595.6470695927186</v>
@@ -32725,7 +32725,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q23" t="n">
         <v>360.4902833647496</v>
@@ -32734,7 +32734,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32777,7 +32777,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H24" t="n">
         <v>17.25001940386726</v>
@@ -32789,19 +32789,19 @@
         <v>0.7465913262578567</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>147.3268674777246</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813462</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
         <v>341.0678223458549</v>
@@ -32813,10 +32813,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T24" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32877,7 +32877,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O25" t="n">
         <v>211.6522236065632</v>
@@ -32889,16 +32889,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32947,7 +32947,7 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K26" t="n">
-        <v>424.6341946041487</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L26" t="n">
         <v>526.796267130444</v>
@@ -33023,31 +33023,31 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
-        <v>0.7465913262578567</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>31.20105213445663</v>
       </c>
       <c r="L27" t="n">
-        <v>387.8120847358985</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724846</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
         <v>464.5362854813462</v>
       </c>
       <c r="O27" t="n">
-        <v>91.84465193776708</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
         <v>33.17612723677465</v>
@@ -33266,7 +33266,7 @@
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>32.8498476804254</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M30" t="n">
         <v>452.5584109724846</v>
@@ -33278,10 +33278,10 @@
         <v>424.9599466855526</v>
       </c>
       <c r="P30" t="n">
-        <v>341.0678223458549</v>
+        <v>87.47659412325748</v>
       </c>
       <c r="Q30" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>110.8952201095118</v>
@@ -33500,28 +33500,28 @@
         <v>0.7465913262578567</v>
       </c>
       <c r="K33" t="n">
-        <v>288.4168775622982</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
         <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724846</v>
+        <v>269.0626963997152</v>
       </c>
       <c r="N33" t="n">
-        <v>392.6063366508803</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
         <v>33.17612723677465</v>
@@ -33679,7 +33679,7 @@
         <v>360.4902833647496</v>
       </c>
       <c r="R35" t="n">
-        <v>209.6945076446473</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
         <v>76.0697047810465</v>
@@ -33737,28 +33737,28 @@
         <v>0.7465913262578567</v>
       </c>
       <c r="K36" t="n">
-        <v>216.4869287318324</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L36" t="n">
-        <v>387.8120847358985</v>
+        <v>270.7639256365557</v>
       </c>
       <c r="M36" t="n">
         <v>452.5584109724846</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813462</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
         <v>33.17612723677465</v>
@@ -33898,7 +33898,7 @@
         <v>424.6341946041488</v>
       </c>
       <c r="L38" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304438</v>
       </c>
       <c r="M38" t="n">
         <v>586.1623499565519</v>
@@ -33974,28 +33974,28 @@
         <v>0.7465913262578567</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724846</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813462</v>
+        <v>291.4295500091222</v>
       </c>
       <c r="O39" t="n">
         <v>424.9599466855526</v>
       </c>
       <c r="P39" t="n">
-        <v>102.4943942860908</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
         <v>33.17612723677465</v>
@@ -34129,13 +34129,13 @@
         <v>128.6967545176652</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961203</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K41" t="n">
         <v>424.6341946041488</v>
       </c>
       <c r="L41" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304438</v>
       </c>
       <c r="M41" t="n">
         <v>586.1623499565519</v>
@@ -34211,10 +34211,10 @@
         <v>0.7465913262578567</v>
       </c>
       <c r="K42" t="n">
-        <v>216.4869287318324</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L42" t="n">
-        <v>387.8120847358985</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
         <v>452.5584109724846</v>
@@ -34229,10 +34229,10 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>31.5807657644291</v>
       </c>
       <c r="R42" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
         <v>33.17612723677465</v>
@@ -34357,16 +34357,16 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K44" t="n">
         <v>424.6341946041488</v>
@@ -34375,7 +34375,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N44" t="n">
         <v>595.6470695927186</v>
@@ -34384,7 +34384,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q44" t="n">
         <v>360.4902833647496</v>
@@ -34393,7 +34393,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34436,7 +34436,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H45" t="n">
         <v>17.25001940386726</v>
@@ -34445,22 +34445,22 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
-        <v>0.7465913262578567</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K45" t="n">
-        <v>216.4869287318324</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>387.8120847358985</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813462</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
@@ -34469,13 +34469,13 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T45" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34536,7 +34536,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O46" t="n">
         <v>211.6522236065632</v>
@@ -34548,16 +34548,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34775,7 +34775,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.0173357577069</v>
+        <v>60.29709682323572</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34790,13 +34790,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
-        <v>325.145920326212</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>173.8110948137341</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34933,19 +34933,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K5" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35012,10 +35012,10 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770692</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K6" t="n">
-        <v>257.8255762031298</v>
+        <v>138.3897561047522</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
@@ -35024,16 +35024,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>323.920986939093</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>70.09551364982758</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35176,22 +35176,22 @@
         <v>297.223041434342</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435303</v>
       </c>
       <c r="M8" t="n">
         <v>485.8144648060966</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492238</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530453</v>
       </c>
       <c r="P8" t="n">
         <v>308.9376163116798</v>
       </c>
       <c r="Q8" t="n">
-        <v>153.9975062898689</v>
+        <v>153.997506289869</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35249,16 +35249,16 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770692</v>
+        <v>76.01733575770695</v>
       </c>
       <c r="K9" t="n">
-        <v>138.3897561047524</v>
+        <v>257.8255762031299</v>
       </c>
       <c r="L9" t="n">
-        <v>408.7029475713857</v>
+        <v>408.7029475713858</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262938</v>
+        <v>410.0055067279162</v>
       </c>
       <c r="N9" t="n">
         <v>559.3197334338903</v>
@@ -35331,7 +35331,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713957</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35343,10 +35343,10 @@
         <v>148.370846145888</v>
       </c>
       <c r="O10" t="n">
-        <v>120.8664146557981</v>
+        <v>120.8664146557982</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873152</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K11" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L11" t="n">
-        <v>708.6910667109073</v>
+        <v>708.691066710907</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221115</v>
       </c>
       <c r="N11" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081116</v>
       </c>
       <c r="O11" t="n">
-        <v>713.1546070951473</v>
+        <v>713.154607095147</v>
       </c>
       <c r="P11" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109121</v>
       </c>
       <c r="Q11" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502047</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349802</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35489,22 +35489,22 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005177</v>
       </c>
       <c r="L12" t="n">
-        <v>620.0980502594836</v>
+        <v>620.0980502594833</v>
       </c>
       <c r="M12" t="n">
-        <v>704.1994919699999</v>
+        <v>776.129440800466</v>
       </c>
       <c r="N12" t="n">
-        <v>812.5369477415666</v>
+        <v>304.852562853209</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556549</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L13" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M13" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789724</v>
       </c>
       <c r="N13" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187477</v>
+        <v>39.2256999718747</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,31 +35644,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>271.378021941508</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L14" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N14" t="n">
-        <v>803.5809304081121</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O14" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P14" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q14" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349816</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35726,28 +35726,28 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>279.0818020779484</v>
       </c>
       <c r="L15" t="n">
-        <v>620.0980502594837</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M15" t="n">
-        <v>776.1294408004663</v>
+        <v>323.5710298279816</v>
       </c>
       <c r="N15" t="n">
-        <v>812.5369477415666</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O15" t="n">
-        <v>343.1107267700513</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,19 +35802,19 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556556</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K16" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L16" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M16" t="n">
         <v>274.3098411789726</v>
       </c>
       <c r="N16" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
         <v>236.2373515206029</v>
@@ -35823,7 +35823,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187479</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35884,13 +35884,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L17" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N17" t="n">
         <v>803.5809304081118</v>
@@ -35905,7 +35905,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,31 +35960,31 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>415.0406756005178</v>
+        <v>11.01175233107096</v>
       </c>
       <c r="L18" t="n">
         <v>620.0980502594834</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N18" t="n">
-        <v>812.5369477415665</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O18" t="n">
-        <v>536.1982776746847</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,10 +36039,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>23.54842149127695</v>
+        <v>23.54842149127692</v>
       </c>
       <c r="K19" t="n">
-        <v>162.743079855622</v>
+        <v>162.7430798556219</v>
       </c>
       <c r="L19" t="n">
         <v>261.2548382056399</v>
@@ -36054,13 +36054,13 @@
         <v>284.317529131315</v>
       </c>
       <c r="O19" t="n">
-        <v>247.2780028463143</v>
+        <v>247.2780028463142</v>
       </c>
       <c r="P19" t="n">
-        <v>189.4242519375122</v>
+        <v>189.4242519375121</v>
       </c>
       <c r="Q19" t="n">
-        <v>50.26635129758618</v>
+        <v>50.26635129758615</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36121,13 +36121,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L20" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N20" t="n">
         <v>803.5809304081118</v>
@@ -36142,7 +36142,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349858</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36203,25 +36203,25 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M21" t="n">
-        <v>636.9619643608276</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>383.8369411113148</v>
       </c>
       <c r="O21" t="n">
-        <v>676.2260215178377</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P21" t="n">
-        <v>525.5561835714618</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q21" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36285,7 +36285,7 @@
         <v>261.2548382056399</v>
       </c>
       <c r="M22" t="n">
-        <v>285.3504925046839</v>
+        <v>285.350492504684</v>
       </c>
       <c r="N22" t="n">
         <v>284.317529131315</v>
@@ -36358,13 +36358,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L23" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N23" t="n">
         <v>803.5809304081118</v>
@@ -36379,7 +36379,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36437,19 +36437,19 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M24" t="n">
-        <v>228.7283062629101</v>
+        <v>470.8978973057062</v>
       </c>
       <c r="N24" t="n">
-        <v>812.5369477415665</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O24" t="n">
-        <v>676.2260215178377</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P24" t="n">
         <v>525.5561835714618</v>
@@ -36458,7 +36458,7 @@
         <v>298.0903205209232</v>
       </c>
       <c r="R24" t="n">
-        <v>10.73738595686865</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,7 +36513,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>23.54842149127692</v>
+        <v>23.54842149127695</v>
       </c>
       <c r="K25" t="n">
         <v>162.743079855622</v>
@@ -36522,7 +36522,7 @@
         <v>261.2548382056399</v>
       </c>
       <c r="M25" t="n">
-        <v>285.3504925046839</v>
+        <v>285.350492504684</v>
       </c>
       <c r="N25" t="n">
         <v>284.317529131315</v>
@@ -36534,7 +36534,7 @@
         <v>189.4242519375122</v>
       </c>
       <c r="Q25" t="n">
-        <v>50.26635129758615</v>
+        <v>50.26635129758618</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36595,7 +36595,7 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.6897561303329</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L26" t="n">
         <v>708.6910667109072</v>
@@ -36671,31 +36671,31 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>157.8248501726762</v>
       </c>
       <c r="L27" t="n">
-        <v>620.0980502594834</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M27" t="n">
-        <v>776.1294408004662</v>
+        <v>323.5710298279816</v>
       </c>
       <c r="N27" t="n">
         <v>812.5369477415665</v>
       </c>
       <c r="O27" t="n">
-        <v>343.1107267700522</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,19 +36750,19 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>23.54842149127698</v>
+        <v>23.54842149127693</v>
       </c>
       <c r="K28" t="n">
         <v>162.743079855622</v>
       </c>
       <c r="L28" t="n">
-        <v>261.25483820564</v>
+        <v>261.2548382056399</v>
       </c>
       <c r="M28" t="n">
-        <v>285.350492504684</v>
+        <v>285.3504925046839</v>
       </c>
       <c r="N28" t="n">
-        <v>284.3175291313151</v>
+        <v>284.317529131315</v>
       </c>
       <c r="O28" t="n">
         <v>247.2780028463143</v>
@@ -36771,7 +36771,7 @@
         <v>189.4242519375122</v>
       </c>
       <c r="Q28" t="n">
-        <v>50.26635129758621</v>
+        <v>50.26635129758616</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36853,7 +36853,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349766</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36911,10 +36911,10 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L30" t="n">
-        <v>265.1358132040104</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M30" t="n">
         <v>776.1294408004662</v>
@@ -36926,10 +36926,10 @@
         <v>676.2260215178377</v>
       </c>
       <c r="P30" t="n">
-        <v>525.5561835714618</v>
+        <v>271.9649553488644</v>
       </c>
       <c r="Q30" t="n">
-        <v>298.0903205209232</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R30" t="n">
         <v>10.73738595686865</v>
@@ -36987,10 +36987,10 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>23.54842149127695</v>
+        <v>23.5484214912769</v>
       </c>
       <c r="K31" t="n">
-        <v>162.743079855622</v>
+        <v>162.7430798556219</v>
       </c>
       <c r="L31" t="n">
         <v>261.2548382056399</v>
@@ -37005,10 +37005,10 @@
         <v>247.2780028463143</v>
       </c>
       <c r="P31" t="n">
-        <v>189.4242519375122</v>
+        <v>189.4242519375121</v>
       </c>
       <c r="Q31" t="n">
-        <v>50.26635129758618</v>
+        <v>50.26635129758613</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37148,28 +37148,28 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>415.0406756005178</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L33" t="n">
         <v>620.0980502594834</v>
       </c>
       <c r="M33" t="n">
-        <v>776.1294408004662</v>
+        <v>592.6337262276968</v>
       </c>
       <c r="N33" t="n">
-        <v>740.6069989111005</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,10 +37224,10 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>80.63966029520617</v>
+        <v>80.63966029520621</v>
       </c>
       <c r="K34" t="n">
-        <v>219.8343186595512</v>
+        <v>219.8343186595513</v>
       </c>
       <c r="L34" t="n">
         <v>318.3460770095692</v>
@@ -37239,10 +37239,10 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O34" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P34" t="n">
-        <v>246.5154907414414</v>
+        <v>246.5154907414415</v>
       </c>
       <c r="Q34" t="n">
         <v>107.3575901015154</v>
@@ -37327,7 +37327,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349766</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37385,28 +37385,28 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>343.1107267700521</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L36" t="n">
-        <v>620.0980502594834</v>
+        <v>503.0498911601407</v>
       </c>
       <c r="M36" t="n">
         <v>776.1294408004662</v>
       </c>
       <c r="N36" t="n">
-        <v>812.5369477415665</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>80.63966029520617</v>
+        <v>80.6396602952062</v>
       </c>
       <c r="K37" t="n">
         <v>219.8343186595512</v>
@@ -37476,10 +37476,10 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O37" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P37" t="n">
-        <v>246.5154907414414</v>
+        <v>246.5154907414415</v>
       </c>
       <c r="Q37" t="n">
         <v>107.3575901015154</v>
@@ -37546,7 +37546,7 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L38" t="n">
-        <v>708.6910667109072</v>
+        <v>708.691066710907</v>
       </c>
       <c r="M38" t="n">
         <v>805.3296502221117</v>
@@ -37622,28 +37622,28 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M39" t="n">
-        <v>776.1294408004662</v>
+        <v>323.5710298279816</v>
       </c>
       <c r="N39" t="n">
-        <v>812.5369477415665</v>
+        <v>639.4302122693424</v>
       </c>
       <c r="O39" t="n">
         <v>676.2260215178377</v>
       </c>
       <c r="P39" t="n">
-        <v>286.9827555116977</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>80.63966029520618</v>
+        <v>80.63966029520617</v>
       </c>
       <c r="K40" t="n">
         <v>219.8343186595512</v>
@@ -37713,7 +37713,7 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O40" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P40" t="n">
         <v>246.5154907414414</v>
@@ -37777,13 +37777,13 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
         <v>528.6897561303331</v>
       </c>
       <c r="L41" t="n">
-        <v>708.6910667109072</v>
+        <v>708.691066710907</v>
       </c>
       <c r="M41" t="n">
         <v>805.3296502221117</v>
@@ -37859,10 +37859,10 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>343.1107267700521</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L42" t="n">
-        <v>620.0980502594834</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
         <v>776.1294408004662</v>
@@ -37871,16 +37871,16 @@
         <v>812.5369477415665</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>101.6762794142567</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>80.6396602952062</v>
+        <v>80.63966029520616</v>
       </c>
       <c r="K43" t="n">
         <v>219.8343186595512</v>
@@ -37950,10 +37950,10 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O43" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P43" t="n">
-        <v>246.5154907414415</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q43" t="n">
         <v>107.3575901015154</v>
@@ -38014,16 +38014,16 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L44" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N44" t="n">
         <v>803.5809304081118</v>
@@ -38038,7 +38038,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,31 +38093,31 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K45" t="n">
-        <v>343.1107267700521</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L45" t="n">
-        <v>620.0980502594834</v>
+        <v>191.5727678272056</v>
       </c>
       <c r="M45" t="n">
-        <v>776.1294408004662</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N45" t="n">
-        <v>812.5369477415665</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>80.63966029520617</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K46" t="n">
         <v>219.8343186595512</v>
